--- a/Pending-Review/AzureTasks Tags Mappingv3.0.xlsx
+++ b/Pending-Review/AzureTasks Tags Mappingv3.0.xlsx
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="503">
   <si>
     <t>SL #</t>
   </si>
@@ -1841,6 +1841,9 @@
   </si>
   <si>
     <t>Manual/Script</t>
+  </si>
+  <si>
+    <t>Need More Information from SAs</t>
   </si>
 </sst>
 </file>
@@ -2736,420 +2739,6 @@
     <xf numFmtId="15" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3165,12 +2754,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3186,14 +2769,8 @@
     <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3209,9 +2786,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3233,12 +2807,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3258,12 +2826,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3281,18 +2843,6 @@
     <xf numFmtId="15" fontId="0" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3307,15 +2857,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3338,25 +2879,475 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <b/>
@@ -3391,53 +3382,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="dashed">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="dashed">
-          <color rgb="FFC00000"/>
-        </right>
-        <top style="dashed">
-          <color rgb="FFC00000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFC00000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4976,22 +4920,22 @@
   </sheetData>
   <autoFilter ref="A1:K21"/>
   <conditionalFormatting sqref="J22:J1048576 J1:J20">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>IF(J1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B24 B61:B1048576">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>IF(J1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H20 H25:H1048576">
-    <cfRule type="expression" dxfId="24" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>IF(AND(H1&lt;TODAY(),AND(J1&lt;&gt;"Completed",J1&lt;&gt;"Script-Ready")),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>IF(J21="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5077,16 +5021,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="293">
+      <c r="A2" s="358">
         <v>1</v>
       </c>
-      <c r="B2" s="290" t="s">
+      <c r="B2" s="355" t="s">
         <v>313</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="290" t="s">
+      <c r="D2" s="355" t="s">
         <v>287</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -5103,12 +5047,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="294"/>
-      <c r="B3" s="291"/>
+      <c r="A3" s="359"/>
+      <c r="B3" s="356"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="291"/>
+      <c r="D3" s="356"/>
       <c r="E3" s="39" t="s">
         <v>19</v>
       </c>
@@ -5121,12 +5065,12 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="294"/>
-      <c r="B4" s="291"/>
+      <c r="A4" s="359"/>
+      <c r="B4" s="356"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="356"/>
       <c r="E4" s="39" t="s">
         <v>19</v>
       </c>
@@ -5141,12 +5085,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="294"/>
-      <c r="B5" s="291"/>
+      <c r="A5" s="359"/>
+      <c r="B5" s="356"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="291"/>
+      <c r="D5" s="356"/>
       <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
@@ -5161,12 +5105,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="294"/>
-      <c r="B6" s="291"/>
+      <c r="A6" s="359"/>
+      <c r="B6" s="356"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="291"/>
+      <c r="D6" s="356"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -5181,12 +5125,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="294"/>
-      <c r="B7" s="291"/>
+      <c r="A7" s="359"/>
+      <c r="B7" s="356"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="291"/>
+      <c r="D7" s="356"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -5201,12 +5145,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="294"/>
-      <c r="B8" s="291"/>
+      <c r="A8" s="359"/>
+      <c r="B8" s="356"/>
       <c r="C8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="291"/>
+      <c r="D8" s="356"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -5219,12 +5163,12 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="294"/>
-      <c r="B9" s="291"/>
+      <c r="A9" s="359"/>
+      <c r="B9" s="356"/>
       <c r="C9" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="291"/>
+      <c r="D9" s="356"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -5237,12 +5181,12 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="294"/>
-      <c r="B10" s="291"/>
+      <c r="A10" s="359"/>
+      <c r="B10" s="356"/>
       <c r="C10" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="D10" s="291"/>
+      <c r="D10" s="356"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -5255,12 +5199,12 @@
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="294"/>
-      <c r="B11" s="291"/>
+      <c r="A11" s="359"/>
+      <c r="B11" s="356"/>
       <c r="C11" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="D11" s="291"/>
+      <c r="D11" s="356"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -5275,12 +5219,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="294"/>
-      <c r="B12" s="291"/>
+      <c r="A12" s="359"/>
+      <c r="B12" s="356"/>
       <c r="C12" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="D12" s="291"/>
+      <c r="D12" s="356"/>
       <c r="E12" s="41" t="s">
         <v>19</v>
       </c>
@@ -5293,12 +5237,12 @@
       <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="294"/>
-      <c r="B13" s="291"/>
+      <c r="A13" s="359"/>
+      <c r="B13" s="356"/>
       <c r="C13" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="D13" s="291"/>
+      <c r="D13" s="356"/>
       <c r="E13" s="41" t="s">
         <v>19</v>
       </c>
@@ -5311,12 +5255,12 @@
       <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="294"/>
-      <c r="B14" s="291"/>
+      <c r="A14" s="359"/>
+      <c r="B14" s="356"/>
       <c r="C14" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="D14" s="291"/>
+      <c r="D14" s="356"/>
       <c r="E14" s="41" t="s">
         <v>19</v>
       </c>
@@ -5329,12 +5273,12 @@
       <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="294"/>
-      <c r="B15" s="291"/>
+      <c r="A15" s="359"/>
+      <c r="B15" s="356"/>
       <c r="C15" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="D15" s="291"/>
+      <c r="D15" s="356"/>
       <c r="E15" s="41" t="s">
         <v>19</v>
       </c>
@@ -5349,12 +5293,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="294"/>
-      <c r="B16" s="291"/>
+      <c r="A16" s="359"/>
+      <c r="B16" s="356"/>
       <c r="C16" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="D16" s="291"/>
+      <c r="D16" s="356"/>
       <c r="E16" s="41" t="s">
         <v>19</v>
       </c>
@@ -5369,12 +5313,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="294"/>
-      <c r="B17" s="291"/>
+      <c r="A17" s="359"/>
+      <c r="B17" s="356"/>
       <c r="C17" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="D17" s="291"/>
+      <c r="D17" s="356"/>
       <c r="E17" s="41" t="s">
         <v>19</v>
       </c>
@@ -5389,12 +5333,12 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="294"/>
-      <c r="B18" s="291"/>
+      <c r="A18" s="359"/>
+      <c r="B18" s="356"/>
       <c r="C18" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="D18" s="291"/>
+      <c r="D18" s="356"/>
       <c r="E18" s="41" t="s">
         <v>19</v>
       </c>
@@ -5409,12 +5353,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="294"/>
-      <c r="B19" s="291"/>
+      <c r="A19" s="359"/>
+      <c r="B19" s="356"/>
       <c r="C19" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="D19" s="291"/>
+      <c r="D19" s="356"/>
       <c r="E19" s="41" t="s">
         <v>19</v>
       </c>
@@ -5429,12 +5373,12 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="294"/>
-      <c r="B20" s="291"/>
+      <c r="A20" s="359"/>
+      <c r="B20" s="356"/>
       <c r="C20" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="D20" s="291"/>
+      <c r="D20" s="356"/>
       <c r="E20" s="41" t="s">
         <v>19</v>
       </c>
@@ -5447,12 +5391,12 @@
       <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="294"/>
-      <c r="B21" s="291"/>
+      <c r="A21" s="359"/>
+      <c r="B21" s="356"/>
       <c r="C21" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="291"/>
+      <c r="D21" s="356"/>
       <c r="E21" s="41" t="s">
         <v>19</v>
       </c>
@@ -5465,12 +5409,12 @@
       <c r="H21" s="40"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="294"/>
-      <c r="B22" s="291"/>
+      <c r="A22" s="359"/>
+      <c r="B22" s="356"/>
       <c r="C22" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="D22" s="291"/>
+      <c r="D22" s="356"/>
       <c r="E22" s="41" t="s">
         <v>19</v>
       </c>
@@ -5483,12 +5427,12 @@
       <c r="H22" s="40"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="294"/>
-      <c r="B23" s="291"/>
+      <c r="A23" s="359"/>
+      <c r="B23" s="356"/>
       <c r="C23" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="D23" s="291"/>
+      <c r="D23" s="356"/>
       <c r="E23" s="41" t="s">
         <v>19</v>
       </c>
@@ -5503,12 +5447,12 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="294"/>
-      <c r="B24" s="291"/>
+      <c r="A24" s="359"/>
+      <c r="B24" s="356"/>
       <c r="C24" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="291"/>
+      <c r="D24" s="356"/>
       <c r="E24" s="41" t="s">
         <v>19</v>
       </c>
@@ -5523,12 +5467,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="295"/>
-      <c r="B25" s="292"/>
+      <c r="A25" s="360"/>
+      <c r="B25" s="357"/>
       <c r="C25" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="D25" s="292"/>
+      <c r="D25" s="357"/>
       <c r="E25" s="41" t="s">
         <v>19</v>
       </c>
@@ -5604,16 +5548,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="352" t="s">
         <v>315</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="287" t="s">
+      <c r="D2" s="352" t="s">
         <v>278</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -5632,12 +5576,12 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="287"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="352"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="287"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="39" t="s">
         <v>19</v>
       </c>
@@ -5651,12 +5595,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="287"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="287"/>
+      <c r="D4" s="352"/>
       <c r="E4" s="39" t="s">
         <v>19</v>
       </c>
@@ -5672,12 +5616,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="287"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="352"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="287"/>
+      <c r="D5" s="352"/>
       <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
@@ -5693,12 +5637,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="287"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="352"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="287"/>
+      <c r="D6" s="352"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -5714,12 +5658,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="287"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="352"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="287"/>
+      <c r="D7" s="352"/>
       <c r="E7" s="39" t="s">
         <v>19</v>
       </c>
@@ -5735,12 +5679,12 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="287"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="352"/>
       <c r="C8" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="D8" s="287"/>
+      <c r="D8" s="352"/>
       <c r="E8" s="39" t="s">
         <v>19</v>
       </c>
@@ -5754,12 +5698,12 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="287"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="352"/>
       <c r="C9" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="287"/>
+      <c r="D9" s="352"/>
       <c r="E9" s="39" t="s">
         <v>19</v>
       </c>
@@ -5773,12 +5717,12 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="287"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="287"/>
+      <c r="D10" s="352"/>
       <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
@@ -5792,12 +5736,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="287"/>
+      <c r="A11" s="337"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="287"/>
+      <c r="D11" s="352"/>
       <c r="E11" s="39" t="s">
         <v>19</v>
       </c>
@@ -5811,12 +5755,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
-      <c r="B12" s="287"/>
+      <c r="A12" s="337"/>
+      <c r="B12" s="352"/>
       <c r="C12" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="287"/>
+      <c r="D12" s="352"/>
       <c r="E12" s="39" t="s">
         <v>19</v>
       </c>
@@ -5830,12 +5774,12 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
-      <c r="B13" s="287"/>
+      <c r="A13" s="337"/>
+      <c r="B13" s="352"/>
       <c r="C13" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="287"/>
+      <c r="D13" s="352"/>
       <c r="E13" s="40" t="s">
         <v>19</v>
       </c>
@@ -5849,12 +5793,12 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
-      <c r="B14" s="287"/>
+      <c r="A14" s="337"/>
+      <c r="B14" s="352"/>
       <c r="C14" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="287"/>
+      <c r="D14" s="352"/>
       <c r="E14" s="40" t="s">
         <v>19</v>
       </c>
@@ -5870,12 +5814,12 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
-      <c r="B15" s="287"/>
+      <c r="A15" s="337"/>
+      <c r="B15" s="352"/>
       <c r="C15" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="D15" s="287"/>
+      <c r="D15" s="352"/>
       <c r="E15" s="40" t="s">
         <v>19</v>
       </c>
@@ -5891,12 +5835,12 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="170"/>
-      <c r="B16" s="287"/>
+      <c r="A16" s="337"/>
+      <c r="B16" s="352"/>
       <c r="C16" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="287"/>
+      <c r="D16" s="352"/>
       <c r="E16" s="40" t="s">
         <v>19</v>
       </c>
@@ -5912,12 +5856,12 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="170"/>
-      <c r="B17" s="287"/>
+      <c r="A17" s="337"/>
+      <c r="B17" s="352"/>
       <c r="C17" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="D17" s="287"/>
+      <c r="D17" s="352"/>
       <c r="E17" s="40" t="s">
         <v>19</v>
       </c>
@@ -5935,12 +5879,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="170"/>
-      <c r="B18" s="287"/>
+      <c r="A18" s="337"/>
+      <c r="B18" s="352"/>
       <c r="C18" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="D18" s="287"/>
+      <c r="D18" s="352"/>
       <c r="E18" s="40" t="s">
         <v>19</v>
       </c>
@@ -5956,12 +5900,12 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="170"/>
-      <c r="B19" s="287"/>
+      <c r="A19" s="337"/>
+      <c r="B19" s="352"/>
       <c r="C19" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="D19" s="287"/>
+      <c r="D19" s="352"/>
       <c r="E19" s="40" t="s">
         <v>19</v>
       </c>
@@ -5976,12 +5920,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="170"/>
-      <c r="B20" s="287"/>
+      <c r="A20" s="337"/>
+      <c r="B20" s="352"/>
       <c r="C20" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="D20" s="287"/>
+      <c r="D20" s="352"/>
       <c r="E20" s="40" t="s">
         <v>19</v>
       </c>
@@ -5996,12 +5940,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="170"/>
-      <c r="B21" s="287"/>
+      <c r="A21" s="337"/>
+      <c r="B21" s="352"/>
       <c r="C21" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="D21" s="287"/>
+      <c r="D21" s="352"/>
       <c r="E21" s="40" t="s">
         <v>19</v>
       </c>
@@ -6014,12 +5958,12 @@
       <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="170"/>
-      <c r="B22" s="287"/>
+      <c r="A22" s="337"/>
+      <c r="B22" s="352"/>
       <c r="C22" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="D22" s="287"/>
+      <c r="D22" s="352"/>
       <c r="E22" s="40" t="s">
         <v>19</v>
       </c>
@@ -6092,16 +6036,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="289" t="s">
+      <c r="B2" s="353" t="s">
         <v>207</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="290" t="s">
+      <c r="D2" s="355" t="s">
         <v>279</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -6118,12 +6062,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="289"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="353"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="291"/>
+      <c r="D3" s="356"/>
       <c r="E3" s="39" t="s">
         <v>19</v>
       </c>
@@ -6136,12 +6080,12 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="289"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="353"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="356"/>
       <c r="E4" s="39" t="s">
         <v>19</v>
       </c>
@@ -6156,12 +6100,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="289"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="353"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="291"/>
+      <c r="D5" s="356"/>
       <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
@@ -6176,12 +6120,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="289"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="353"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="291"/>
+      <c r="D6" s="356"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -6196,12 +6140,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="289"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="353"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="291"/>
+      <c r="D7" s="356"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -6216,12 +6160,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="289"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="353"/>
       <c r="C8" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="291"/>
+      <c r="D8" s="356"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -6234,12 +6178,12 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="289"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="353"/>
       <c r="C9" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="291"/>
+      <c r="D9" s="356"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -6252,12 +6196,12 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="289"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="353"/>
       <c r="C10" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="291"/>
+      <c r="D10" s="356"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -6270,12 +6214,12 @@
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="289"/>
+      <c r="A11" s="337"/>
+      <c r="B11" s="353"/>
       <c r="C11" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="D11" s="292"/>
+      <c r="D11" s="357"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -6349,16 +6293,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="352" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="287" t="s">
+      <c r="D2" s="352" t="s">
         <v>280</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -6376,12 +6320,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="287"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="352"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="287"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="39" t="s">
         <v>19</v>
       </c>
@@ -6395,12 +6339,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="287"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="287"/>
+      <c r="D4" s="352"/>
       <c r="E4" s="39" t="s">
         <v>19</v>
       </c>
@@ -6416,12 +6360,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="287"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="352"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="287"/>
+      <c r="D5" s="352"/>
       <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
@@ -6437,12 +6381,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="287"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="352"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="287"/>
+      <c r="D6" s="352"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -6458,12 +6402,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="287"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="352"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="287"/>
+      <c r="D7" s="352"/>
       <c r="E7" s="39" t="s">
         <v>19</v>
       </c>
@@ -6479,12 +6423,12 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="287"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="352"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="287"/>
+      <c r="D8" s="352"/>
       <c r="E8" s="39" t="s">
         <v>80</v>
       </c>
@@ -6498,12 +6442,12 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="287"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="352"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="287"/>
+      <c r="D9" s="352"/>
       <c r="E9" s="39" t="s">
         <v>19</v>
       </c>
@@ -6517,12 +6461,12 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="287"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="287"/>
+      <c r="D10" s="352"/>
       <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
@@ -6536,12 +6480,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="287"/>
+      <c r="A11" s="337"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="287"/>
+      <c r="D11" s="352"/>
       <c r="E11" s="39" t="s">
         <v>19</v>
       </c>
@@ -6555,12 +6499,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
-      <c r="B12" s="287"/>
+      <c r="A12" s="337"/>
+      <c r="B12" s="352"/>
       <c r="C12" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="287"/>
+      <c r="D12" s="352"/>
       <c r="E12" s="40" t="s">
         <v>19</v>
       </c>
@@ -6574,12 +6518,12 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
-      <c r="B13" s="287"/>
+      <c r="A13" s="337"/>
+      <c r="B13" s="352"/>
       <c r="C13" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="287"/>
+      <c r="D13" s="352"/>
       <c r="E13" s="40" t="s">
         <v>19</v>
       </c>
@@ -6595,12 +6539,12 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
-      <c r="B14" s="287"/>
+      <c r="A14" s="337"/>
+      <c r="B14" s="352"/>
       <c r="C14" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="D14" s="287"/>
+      <c r="D14" s="352"/>
       <c r="E14" s="40" t="s">
         <v>19</v>
       </c>
@@ -6616,12 +6560,12 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
-      <c r="B15" s="287"/>
+      <c r="A15" s="337"/>
+      <c r="B15" s="352"/>
       <c r="C15" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="287"/>
+      <c r="D15" s="352"/>
       <c r="E15" s="40" t="s">
         <v>19</v>
       </c>
@@ -6637,12 +6581,12 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="170"/>
-      <c r="B16" s="287"/>
+      <c r="A16" s="337"/>
+      <c r="B16" s="352"/>
       <c r="C16" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="D16" s="287"/>
+      <c r="D16" s="352"/>
       <c r="E16" s="40" t="s">
         <v>19</v>
       </c>
@@ -6658,12 +6602,12 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="170"/>
-      <c r="B17" s="287"/>
+      <c r="A17" s="337"/>
+      <c r="B17" s="352"/>
       <c r="C17" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="D17" s="287"/>
+      <c r="D17" s="352"/>
       <c r="E17" s="40" t="s">
         <v>80</v>
       </c>
@@ -6679,12 +6623,12 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="170"/>
-      <c r="B18" s="287"/>
+      <c r="A18" s="337"/>
+      <c r="B18" s="352"/>
       <c r="C18" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="D18" s="287"/>
+      <c r="D18" s="352"/>
       <c r="E18" s="40" t="s">
         <v>19</v>
       </c>
@@ -6698,12 +6642,12 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="170"/>
-      <c r="B19" s="287"/>
+      <c r="A19" s="337"/>
+      <c r="B19" s="352"/>
       <c r="C19" s="39" t="s">
         <v>378</v>
       </c>
-      <c r="D19" s="287"/>
+      <c r="D19" s="352"/>
       <c r="E19" s="40" t="s">
         <v>19</v>
       </c>
@@ -6718,12 +6662,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="170"/>
-      <c r="B20" s="287"/>
+      <c r="A20" s="337"/>
+      <c r="B20" s="352"/>
       <c r="C20" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="D20" s="287"/>
+      <c r="D20" s="352"/>
       <c r="E20" s="56" t="s">
         <v>19</v>
       </c>
@@ -6738,12 +6682,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="170"/>
-      <c r="B21" s="287"/>
+      <c r="A21" s="337"/>
+      <c r="B21" s="352"/>
       <c r="C21" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="D21" s="287"/>
+      <c r="D21" s="352"/>
       <c r="E21" s="56" t="s">
         <v>19</v>
       </c>
@@ -6819,16 +6763,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="352" t="s">
         <v>440</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="287" t="s">
+      <c r="D2" s="352" t="s">
         <v>441</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -6846,12 +6790,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="287"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="352"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="287"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
@@ -6865,12 +6809,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="287"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="287"/>
+      <c r="D4" s="352"/>
       <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
@@ -6886,12 +6830,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="287"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="352"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="287"/>
+      <c r="D5" s="352"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
@@ -6907,12 +6851,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="287"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="352"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="287"/>
+      <c r="D6" s="352"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -6928,12 +6872,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="287"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="352"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="287"/>
+      <c r="D7" s="352"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -6949,12 +6893,12 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="287"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="352"/>
       <c r="C8" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="287"/>
+      <c r="D8" s="352"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -6970,12 +6914,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="287"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="352"/>
       <c r="C9" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="287"/>
+      <c r="D9" s="352"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -6991,12 +6935,12 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="287"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="287"/>
+      <c r="D10" s="352"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -7011,12 +6955,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="287"/>
+      <c r="A11" s="337"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="287"/>
+      <c r="D11" s="352"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -7031,12 +6975,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
-      <c r="B12" s="287"/>
+      <c r="A12" s="337"/>
+      <c r="B12" s="352"/>
       <c r="C12" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="287"/>
+      <c r="D12" s="352"/>
       <c r="E12" s="41" t="s">
         <v>19</v>
       </c>
@@ -7051,12 +6995,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
-      <c r="B13" s="287"/>
+      <c r="A13" s="337"/>
+      <c r="B13" s="352"/>
       <c r="C13" s="41" t="s">
         <v>448</v>
       </c>
-      <c r="D13" s="287"/>
+      <c r="D13" s="352"/>
       <c r="E13" s="41" t="s">
         <v>19</v>
       </c>
@@ -7071,12 +7015,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
-      <c r="B14" s="287"/>
+      <c r="A14" s="337"/>
+      <c r="B14" s="352"/>
       <c r="C14" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="D14" s="287"/>
+      <c r="D14" s="352"/>
       <c r="E14" s="41" t="s">
         <v>19</v>
       </c>
@@ -7091,12 +7035,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
-      <c r="B15" s="287"/>
+      <c r="A15" s="337"/>
+      <c r="B15" s="352"/>
       <c r="C15" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="D15" s="287"/>
+      <c r="D15" s="352"/>
       <c r="E15" s="41" t="s">
         <v>19</v>
       </c>
@@ -7111,12 +7055,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="170"/>
-      <c r="B16" s="287"/>
+      <c r="A16" s="337"/>
+      <c r="B16" s="352"/>
       <c r="C16" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="D16" s="287"/>
+      <c r="D16" s="352"/>
       <c r="E16" s="41" t="s">
         <v>19</v>
       </c>
@@ -7131,12 +7075,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="170"/>
-      <c r="B17" s="287"/>
+      <c r="A17" s="337"/>
+      <c r="B17" s="352"/>
       <c r="C17" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="D17" s="287"/>
+      <c r="D17" s="352"/>
       <c r="E17" s="41" t="s">
         <v>19</v>
       </c>
@@ -7211,16 +7155,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="352" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="287" t="s">
+      <c r="D2" s="352" t="s">
         <v>291</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -7238,12 +7182,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="287"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="352"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="287"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
@@ -7257,12 +7201,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="287"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="287"/>
+      <c r="D4" s="352"/>
       <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
@@ -7278,12 +7222,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="287"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="352"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="287"/>
+      <c r="D5" s="352"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
@@ -7299,12 +7243,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="287"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="352"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="287"/>
+      <c r="D6" s="352"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -7320,12 +7264,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="287"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="352"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="287"/>
+      <c r="D7" s="352"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -7341,12 +7285,12 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="287"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="352"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="287"/>
+      <c r="D8" s="352"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -7362,12 +7306,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="287"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="352"/>
       <c r="C9" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="D9" s="287"/>
+      <c r="D9" s="352"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -7383,12 +7327,12 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="287"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="D10" s="287"/>
+      <c r="D10" s="352"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -7463,16 +7407,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="352" t="s">
         <v>208</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="287" t="s">
+      <c r="D2" s="352" t="s">
         <v>288</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -7490,12 +7434,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="287"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="352"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="287"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
@@ -7509,12 +7453,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="287"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="287"/>
+      <c r="D4" s="352"/>
       <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
@@ -7530,12 +7474,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="287"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="352"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="287"/>
+      <c r="D5" s="352"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
@@ -7551,12 +7495,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="287"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="352"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="287"/>
+      <c r="D6" s="352"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -7572,12 +7516,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="287"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="352"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="287"/>
+      <c r="D7" s="352"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -7593,12 +7537,12 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="287"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="352"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="287"/>
+      <c r="D8" s="352"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -7614,12 +7558,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="287"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="352"/>
       <c r="C9" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="287"/>
+      <c r="D9" s="352"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -7635,12 +7579,12 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="287"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="D10" s="287"/>
+      <c r="D10" s="352"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -7653,12 +7597,12 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="287"/>
+      <c r="A11" s="337"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="D11" s="287"/>
+      <c r="D11" s="352"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -7731,16 +7675,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="352" t="s">
         <v>211</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="287" t="s">
+      <c r="D2" s="352" t="s">
         <v>289</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -7758,12 +7702,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="287"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="352"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="287"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
@@ -7777,12 +7721,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="287"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="287"/>
+      <c r="D4" s="352"/>
       <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
@@ -7798,12 +7742,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="287"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="352"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="287"/>
+      <c r="D5" s="352"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
@@ -7819,12 +7763,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="287"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="352"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="287"/>
+      <c r="D6" s="352"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -7840,12 +7784,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="287"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="352"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="287"/>
+      <c r="D7" s="352"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -7861,12 +7805,12 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="287"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="352"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="287"/>
+      <c r="D8" s="352"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -7882,12 +7826,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="287"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="352"/>
       <c r="C9" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="287"/>
+      <c r="D9" s="352"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -7903,12 +7847,12 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="287"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="D10" s="287"/>
+      <c r="D10" s="352"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -7921,12 +7865,12 @@
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="287"/>
+      <c r="A11" s="337"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="D11" s="287"/>
+      <c r="D11" s="352"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -7939,12 +7883,12 @@
       <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
-      <c r="B12" s="287"/>
+      <c r="A12" s="337"/>
+      <c r="B12" s="352"/>
       <c r="C12" s="41" t="s">
         <v>401</v>
       </c>
-      <c r="D12" s="287"/>
+      <c r="D12" s="352"/>
       <c r="E12" s="41" t="s">
         <v>19</v>
       </c>
@@ -8017,14 +7961,14 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="287"/>
+      <c r="B2" s="352"/>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="287" t="s">
+      <c r="D2" s="352" t="s">
         <v>384</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -8042,12 +7986,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="287"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="352"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="287"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
@@ -8061,12 +8005,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="287"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="287"/>
+      <c r="D4" s="352"/>
       <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
@@ -8082,12 +8026,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="287"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="352"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="287"/>
+      <c r="D5" s="352"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
@@ -8103,12 +8047,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="287"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="352"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="287"/>
+      <c r="D6" s="352"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -8124,12 +8068,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="287"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="352"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="287"/>
+      <c r="D7" s="352"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -8145,12 +8089,12 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="287"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="352"/>
       <c r="C8" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="287"/>
+      <c r="D8" s="352"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -8166,12 +8110,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="287"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="352"/>
       <c r="C9" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="D9" s="287"/>
+      <c r="D9" s="352"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -8187,12 +8131,12 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="287"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="D10" s="287"/>
+      <c r="D10" s="352"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -8238,16 +8182,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="299">
+      <c r="A2" s="361">
         <v>1</v>
       </c>
-      <c r="B2" s="288" t="s">
+      <c r="B2" s="354" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="74" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="288" t="s">
+      <c r="D2" s="354" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="74" t="s">
@@ -8265,12 +8209,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="299"/>
-      <c r="B3" s="288"/>
+      <c r="A3" s="361"/>
+      <c r="B3" s="354"/>
       <c r="C3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="288"/>
+      <c r="D3" s="354"/>
       <c r="E3" s="75" t="s">
         <v>19</v>
       </c>
@@ -8287,12 +8231,12 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="299"/>
-      <c r="B4" s="288"/>
+      <c r="A4" s="361"/>
+      <c r="B4" s="354"/>
       <c r="C4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="288"/>
+      <c r="D4" s="354"/>
       <c r="E4" s="75" t="s">
         <v>19</v>
       </c>
@@ -8309,12 +8253,12 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="299"/>
-      <c r="B5" s="288"/>
+      <c r="A5" s="361"/>
+      <c r="B5" s="354"/>
       <c r="C5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="288"/>
+      <c r="D5" s="354"/>
       <c r="E5" s="75" t="s">
         <v>19</v>
       </c>
@@ -8333,12 +8277,12 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="299"/>
-      <c r="B6" s="288"/>
+      <c r="A6" s="361"/>
+      <c r="B6" s="354"/>
       <c r="C6" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="288"/>
+      <c r="D6" s="354"/>
       <c r="E6" s="75" t="s">
         <v>19</v>
       </c>
@@ -8359,12 +8303,12 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="299"/>
-      <c r="B7" s="288"/>
+      <c r="A7" s="361"/>
+      <c r="B7" s="354"/>
       <c r="C7" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="288"/>
+      <c r="D7" s="354"/>
       <c r="E7" s="75" t="s">
         <v>19</v>
       </c>
@@ -8385,12 +8329,12 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="299"/>
-      <c r="B8" s="288"/>
+      <c r="A8" s="361"/>
+      <c r="B8" s="354"/>
       <c r="C8" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="288"/>
+      <c r="D8" s="354"/>
       <c r="E8" s="75" t="s">
         <v>19</v>
       </c>
@@ -8411,12 +8355,12 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="299"/>
-      <c r="B9" s="288"/>
+      <c r="A9" s="361"/>
+      <c r="B9" s="354"/>
       <c r="C9" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="288"/>
+      <c r="D9" s="354"/>
       <c r="E9" s="75" t="s">
         <v>19</v>
       </c>
@@ -8433,16 +8377,16 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="300">
+      <c r="A10" s="362">
         <v>2</v>
       </c>
-      <c r="B10" s="300" t="s">
+      <c r="B10" s="362" t="s">
         <v>428</v>
       </c>
       <c r="C10" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="300" t="s">
+      <c r="D10" s="362" t="s">
         <v>429</v>
       </c>
       <c r="E10" s="80" t="s">
@@ -8463,12 +8407,12 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="301"/>
-      <c r="B11" s="301"/>
+      <c r="A11" s="363"/>
+      <c r="B11" s="363"/>
       <c r="C11" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="301"/>
+      <c r="D11" s="363"/>
       <c r="E11" s="81" t="s">
         <v>19</v>
       </c>
@@ -8482,12 +8426,12 @@
       <c r="I11" s="82"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="301"/>
-      <c r="B12" s="301"/>
+      <c r="A12" s="363"/>
+      <c r="B12" s="363"/>
       <c r="C12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="301"/>
+      <c r="D12" s="363"/>
       <c r="E12" s="81" t="s">
         <v>19</v>
       </c>
@@ -8501,12 +8445,12 @@
       <c r="I12" s="82"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="301"/>
-      <c r="B13" s="301"/>
+      <c r="A13" s="363"/>
+      <c r="B13" s="363"/>
       <c r="C13" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="301"/>
+      <c r="D13" s="363"/>
       <c r="E13" s="81" t="s">
         <v>19</v>
       </c>
@@ -8520,12 +8464,12 @@
       <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="301"/>
-      <c r="B14" s="301"/>
+      <c r="A14" s="363"/>
+      <c r="B14" s="363"/>
       <c r="C14" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="301"/>
+      <c r="D14" s="363"/>
       <c r="E14" s="81" t="s">
         <v>19</v>
       </c>
@@ -8543,12 +8487,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="301"/>
-      <c r="B15" s="301"/>
+      <c r="A15" s="363"/>
+      <c r="B15" s="363"/>
       <c r="C15" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="301"/>
+      <c r="D15" s="363"/>
       <c r="E15" s="81" t="s">
         <v>19</v>
       </c>
@@ -8566,12 +8510,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="302"/>
-      <c r="B16" s="302"/>
+      <c r="A16" s="364"/>
+      <c r="B16" s="364"/>
       <c r="C16" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="302"/>
+      <c r="D16" s="364"/>
       <c r="E16" s="81" t="s">
         <v>19</v>
       </c>
@@ -8587,16 +8531,16 @@
       <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="296">
+      <c r="A17" s="365">
         <v>3</v>
       </c>
-      <c r="B17" s="296" t="s">
+      <c r="B17" s="365" t="s">
         <v>408</v>
       </c>
       <c r="C17" s="84" t="s">
         <v>308</v>
       </c>
-      <c r="D17" s="296" t="s">
+      <c r="D17" s="365" t="s">
         <v>411</v>
       </c>
       <c r="E17" s="85" t="s">
@@ -8612,12 +8556,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="297"/>
-      <c r="B18" s="297"/>
+      <c r="A18" s="366"/>
+      <c r="B18" s="366"/>
       <c r="C18" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="297"/>
+      <c r="D18" s="366"/>
       <c r="E18" s="85" t="s">
         <v>19</v>
       </c>
@@ -8631,12 +8575,12 @@
       <c r="I18" s="86"/>
     </row>
     <row r="19" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="297"/>
-      <c r="B19" s="297"/>
+      <c r="A19" s="366"/>
+      <c r="B19" s="366"/>
       <c r="C19" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="297"/>
+      <c r="D19" s="366"/>
       <c r="E19" s="85" t="s">
         <v>19</v>
       </c>
@@ -8650,12 +8594,12 @@
       <c r="I19" s="86"/>
     </row>
     <row r="20" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="297"/>
-      <c r="B20" s="297"/>
+      <c r="A20" s="366"/>
+      <c r="B20" s="366"/>
       <c r="C20" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="297"/>
+      <c r="D20" s="366"/>
       <c r="E20" s="85" t="s">
         <v>19</v>
       </c>
@@ -8669,12 +8613,12 @@
       <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="297"/>
-      <c r="B21" s="297"/>
+      <c r="A21" s="366"/>
+      <c r="B21" s="366"/>
       <c r="C21" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="297"/>
+      <c r="D21" s="366"/>
       <c r="E21" s="85" t="s">
         <v>19</v>
       </c>
@@ -8692,12 +8636,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="297"/>
-      <c r="B22" s="297"/>
+      <c r="A22" s="366"/>
+      <c r="B22" s="366"/>
       <c r="C22" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="297"/>
+      <c r="D22" s="366"/>
       <c r="E22" s="85" t="s">
         <v>19</v>
       </c>
@@ -8715,12 +8659,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="297"/>
-      <c r="B23" s="297"/>
+      <c r="A23" s="366"/>
+      <c r="B23" s="366"/>
       <c r="C23" s="85" t="s">
         <v>431</v>
       </c>
-      <c r="D23" s="297"/>
+      <c r="D23" s="366"/>
       <c r="E23" s="85" t="s">
         <v>19</v>
       </c>
@@ -8735,12 +8679,12 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="297"/>
-      <c r="B24" s="297"/>
+      <c r="A24" s="366"/>
+      <c r="B24" s="366"/>
       <c r="C24" s="85" t="s">
         <v>432</v>
       </c>
-      <c r="D24" s="297"/>
+      <c r="D24" s="366"/>
       <c r="E24" s="85" t="s">
         <v>19</v>
       </c>
@@ -8758,12 +8702,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="297"/>
-      <c r="B25" s="297"/>
+      <c r="A25" s="366"/>
+      <c r="B25" s="366"/>
       <c r="C25" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="297"/>
+      <c r="D25" s="366"/>
       <c r="E25" s="85" t="s">
         <v>19</v>
       </c>
@@ -8776,12 +8720,12 @@
       <c r="I25" s="86"/>
     </row>
     <row r="26" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="298"/>
-      <c r="B26" s="298"/>
+      <c r="A26" s="367"/>
+      <c r="B26" s="367"/>
       <c r="C26" s="85" t="s">
         <v>434</v>
       </c>
-      <c r="D26" s="298"/>
+      <c r="D26" s="367"/>
       <c r="E26" s="85" t="s">
         <v>19</v>
       </c>
@@ -8797,16 +8741,16 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="266">
+      <c r="A27" s="247">
         <v>4</v>
       </c>
-      <c r="B27" s="263" t="s">
+      <c r="B27" s="244" t="s">
         <v>436</v>
       </c>
       <c r="C27" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="D27" s="263" t="s">
+      <c r="D27" s="244" t="s">
         <v>163</v>
       </c>
       <c r="E27" s="88" t="s">
@@ -8822,12 +8766,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="267"/>
-      <c r="B28" s="264"/>
+      <c r="A28" s="248"/>
+      <c r="B28" s="245"/>
       <c r="C28" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="264"/>
+      <c r="D28" s="245"/>
       <c r="E28" s="88" t="s">
         <v>19</v>
       </c>
@@ -8841,12 +8785,12 @@
       <c r="I28" s="89"/>
     </row>
     <row r="29" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="267"/>
-      <c r="B29" s="264"/>
+      <c r="A29" s="248"/>
+      <c r="B29" s="245"/>
       <c r="C29" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="264"/>
+      <c r="D29" s="245"/>
       <c r="E29" s="88" t="s">
         <v>19</v>
       </c>
@@ -8860,12 +8804,12 @@
       <c r="I29" s="89"/>
     </row>
     <row r="30" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="267"/>
-      <c r="B30" s="264"/>
+      <c r="A30" s="248"/>
+      <c r="B30" s="245"/>
       <c r="C30" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="264"/>
+      <c r="D30" s="245"/>
       <c r="E30" s="88" t="s">
         <v>19</v>
       </c>
@@ -8879,12 +8823,12 @@
       <c r="I30" s="89"/>
     </row>
     <row r="31" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="267"/>
-      <c r="B31" s="264"/>
+      <c r="A31" s="248"/>
+      <c r="B31" s="245"/>
       <c r="C31" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="264"/>
+      <c r="D31" s="245"/>
       <c r="E31" s="88" t="s">
         <v>19</v>
       </c>
@@ -8902,12 +8846,12 @@
       </c>
     </row>
     <row r="32" spans="1:9" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="267"/>
-      <c r="B32" s="264"/>
+      <c r="A32" s="248"/>
+      <c r="B32" s="245"/>
       <c r="C32" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="264"/>
+      <c r="D32" s="245"/>
       <c r="E32" s="88" t="s">
         <v>19</v>
       </c>
@@ -8925,12 +8869,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="267"/>
-      <c r="B33" s="264"/>
+      <c r="A33" s="248"/>
+      <c r="B33" s="245"/>
       <c r="C33" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="264"/>
+      <c r="D33" s="245"/>
       <c r="E33" s="88" t="s">
         <v>19</v>
       </c>
@@ -8948,12 +8892,12 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="267"/>
-      <c r="B34" s="264"/>
+      <c r="A34" s="248"/>
+      <c r="B34" s="245"/>
       <c r="C34" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="264"/>
+      <c r="D34" s="245"/>
       <c r="E34" s="88" t="s">
         <v>19</v>
       </c>
@@ -8972,12 +8916,12 @@
       <c r="L34" s="93"/>
     </row>
     <row r="35" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="267"/>
-      <c r="B35" s="264"/>
+      <c r="A35" s="248"/>
+      <c r="B35" s="245"/>
       <c r="C35" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="264"/>
+      <c r="D35" s="245"/>
       <c r="E35" s="88" t="s">
         <v>19</v>
       </c>
@@ -8996,12 +8940,12 @@
       <c r="L35" s="93"/>
     </row>
     <row r="36" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="267"/>
-      <c r="B36" s="264"/>
+      <c r="A36" s="248"/>
+      <c r="B36" s="245"/>
       <c r="C36" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="264"/>
+      <c r="D36" s="245"/>
       <c r="E36" s="88" t="s">
         <v>80</v>
       </c>
@@ -9020,12 +8964,12 @@
       <c r="L36" s="93"/>
     </row>
     <row r="37" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="267"/>
-      <c r="B37" s="264"/>
+      <c r="A37" s="248"/>
+      <c r="B37" s="245"/>
       <c r="C37" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="264"/>
+      <c r="D37" s="245"/>
       <c r="E37" s="88" t="s">
         <v>19</v>
       </c>
@@ -9044,12 +8988,12 @@
       <c r="L37" s="93"/>
     </row>
     <row r="38" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="267"/>
-      <c r="B38" s="264"/>
+      <c r="A38" s="248"/>
+      <c r="B38" s="245"/>
       <c r="C38" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="264"/>
+      <c r="D38" s="245"/>
       <c r="E38" s="88" t="s">
         <v>19</v>
       </c>
@@ -9068,12 +9012,12 @@
       <c r="L38" s="93"/>
     </row>
     <row r="39" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="267"/>
-      <c r="B39" s="264"/>
+      <c r="A39" s="248"/>
+      <c r="B39" s="245"/>
       <c r="C39" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="264"/>
+      <c r="D39" s="245"/>
       <c r="E39" s="88" t="s">
         <v>80</v>
       </c>
@@ -9092,12 +9036,12 @@
       <c r="L39" s="93"/>
     </row>
     <row r="40" spans="1:12" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="268"/>
-      <c r="B40" s="265"/>
+      <c r="A40" s="249"/>
+      <c r="B40" s="246"/>
       <c r="C40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="265"/>
+      <c r="D40" s="246"/>
       <c r="E40" s="88" t="s">
         <v>80</v>
       </c>
@@ -9117,18 +9061,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="D17:D26"/>
+    <mergeCell ref="A27:A40"/>
+    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="D27:D40"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D2:D9"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="D10:D16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="D17:D26"/>
-    <mergeCell ref="A27:A40"/>
-    <mergeCell ref="B27:B40"/>
-    <mergeCell ref="D27:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9136,13 +9080,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" filterMode="1">
+  <sheetPr codeName="Sheet2">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -9167,40 +9111,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="171" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="309" t="s">
+      <c r="B1" s="171" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="309" t="s">
+      <c r="C1" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="309" t="s">
+      <c r="D1" s="171" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="310" t="s">
+      <c r="E1" s="172" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="309" t="s">
+      <c r="F1" s="171" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="309" t="s">
+      <c r="G1" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="309" t="s">
+      <c r="H1" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="309" t="s">
+      <c r="I1" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="309" t="s">
+      <c r="J1" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="309" t="s">
+      <c r="K1" s="171" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="311" t="s">
+      <c r="L1" s="173" t="s">
         <v>423</v>
       </c>
       <c r="M1" s="17" t="s">
@@ -9209,13 +9153,13 @@
       <c r="N1" s="55" t="s">
         <v>461</v>
       </c>
-      <c r="O1" s="312"/>
-    </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="252">
+      <c r="O1" s="174"/>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="293">
         <v>1</v>
       </c>
-      <c r="B2" s="242" t="s">
+      <c r="B2" s="283" t="s">
         <v>414</v>
       </c>
       <c r="C2" s="62" t="s">
@@ -9253,150 +9197,150 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="313"/>
-      <c r="B3" s="314"/>
-      <c r="C3" s="315" t="s">
+      <c r="A3" s="294"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="175" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="316" t="s">
+      <c r="D3" s="176" t="s">
         <v>410</v>
       </c>
-      <c r="E3" s="317" t="s">
+      <c r="E3" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="318" t="s">
+      <c r="F3" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="318" t="s">
+      <c r="G3" s="178" t="s">
         <v>198</v>
       </c>
-      <c r="H3" s="308">
+      <c r="H3" s="170">
         <v>42598</v>
       </c>
-      <c r="I3" s="308">
+      <c r="I3" s="170">
         <v>42602</v>
       </c>
-      <c r="J3" s="308">
+      <c r="J3" s="170">
         <v>42602</v>
       </c>
-      <c r="K3" s="308" t="s">
+      <c r="K3" s="170" t="s">
         <v>367</v>
       </c>
-      <c r="L3" s="319" t="s">
+      <c r="L3" s="179" t="s">
         <v>459</v>
       </c>
-      <c r="O3" s="321"/>
+      <c r="O3" s="180"/>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="313"/>
-      <c r="B4" s="314"/>
-      <c r="C4" s="315" t="s">
+      <c r="A4" s="294"/>
+      <c r="B4" s="284"/>
+      <c r="C4" s="175" t="s">
         <v>408</v>
       </c>
-      <c r="D4" s="316" t="s">
+      <c r="D4" s="176" t="s">
         <v>411</v>
       </c>
-      <c r="E4" s="317" t="s">
+      <c r="E4" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="318" t="s">
+      <c r="F4" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="318" t="s">
+      <c r="G4" s="178" t="s">
         <v>198</v>
       </c>
-      <c r="H4" s="308">
+      <c r="H4" s="170">
         <v>42598</v>
       </c>
-      <c r="I4" s="308">
+      <c r="I4" s="170">
         <v>42602</v>
       </c>
-      <c r="J4" s="308">
+      <c r="J4" s="170">
         <v>42602</v>
       </c>
-      <c r="K4" s="308" t="s">
+      <c r="K4" s="170" t="s">
         <v>367</v>
       </c>
-      <c r="L4" s="319" t="s">
+      <c r="L4" s="179" t="s">
         <v>459</v>
       </c>
-      <c r="O4" s="321"/>
+      <c r="O4" s="180"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="313"/>
-      <c r="B5" s="314"/>
-      <c r="C5" s="315" t="s">
+      <c r="A5" s="294"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="175" t="s">
         <v>409</v>
       </c>
-      <c r="D5" s="316" t="s">
+      <c r="D5" s="176" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="317" t="s">
+      <c r="E5" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="318" t="s">
+      <c r="F5" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="318" t="s">
+      <c r="G5" s="178" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="308">
+      <c r="H5" s="170">
         <v>42598</v>
       </c>
-      <c r="I5" s="308">
+      <c r="I5" s="170">
         <v>42602</v>
       </c>
-      <c r="J5" s="308">
+      <c r="J5" s="170">
         <v>42602</v>
       </c>
-      <c r="K5" s="308" t="s">
+      <c r="K5" s="170" t="s">
         <v>367</v>
       </c>
-      <c r="L5" s="319" t="s">
+      <c r="L5" s="179" t="s">
         <v>459</v>
       </c>
-      <c r="O5" s="321"/>
+      <c r="O5" s="180"/>
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="313"/>
-      <c r="B6" s="320" t="s">
+      <c r="A6" s="294"/>
+      <c r="B6" s="285" t="s">
         <v>416</v>
       </c>
-      <c r="C6" s="315" t="s">
+      <c r="C6" s="175" t="s">
         <v>412</v>
       </c>
-      <c r="D6" s="316" t="s">
+      <c r="D6" s="176" t="s">
         <v>425</v>
       </c>
-      <c r="E6" s="317" t="s">
+      <c r="E6" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="318" t="s">
+      <c r="F6" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="318" t="s">
+      <c r="G6" s="178" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="308">
+      <c r="H6" s="170">
         <v>42601</v>
       </c>
-      <c r="I6" s="308">
+      <c r="I6" s="170">
         <v>42604</v>
       </c>
-      <c r="J6" s="308">
+      <c r="J6" s="170">
         <v>42604</v>
       </c>
-      <c r="K6" s="308" t="s">
+      <c r="K6" s="170" t="s">
         <v>367</v>
       </c>
-      <c r="L6" s="319" t="s">
+      <c r="L6" s="179" t="s">
         <v>459</v>
       </c>
-      <c r="O6" s="321"/>
-    </row>
-    <row r="7" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="253"/>
-      <c r="B7" s="244"/>
+      <c r="O6" s="180"/>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="295"/>
+      <c r="B7" s="286"/>
       <c r="C7" s="62" t="s">
         <v>190</v>
       </c>
@@ -9433,9 +9377,9 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="253"/>
-      <c r="B8" s="244"/>
+    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="295"/>
+      <c r="B8" s="286"/>
       <c r="C8" s="62" t="s">
         <v>413</v>
       </c>
@@ -9463,9 +9407,9 @@
       <c r="N8"/>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="253"/>
-      <c r="B9" s="244"/>
+    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="295"/>
+      <c r="B9" s="286"/>
       <c r="C9" s="62" t="s">
         <v>422</v>
       </c>
@@ -9490,44 +9434,44 @@
       <c r="O9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="313"/>
-      <c r="B10" s="322"/>
-      <c r="C10" s="315" t="s">
+      <c r="A10" s="294"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="175" t="s">
         <v>398</v>
       </c>
-      <c r="D10" s="316" t="s">
+      <c r="D10" s="176" t="s">
         <v>426</v>
       </c>
-      <c r="E10" s="317" t="s">
+      <c r="E10" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="318" t="s">
+      <c r="F10" s="178" t="s">
         <v>415</v>
       </c>
-      <c r="G10" s="318" t="s">
+      <c r="G10" s="178" t="s">
         <v>198</v>
       </c>
-      <c r="H10" s="308">
+      <c r="H10" s="170">
         <v>42598</v>
       </c>
-      <c r="I10" s="308">
+      <c r="I10" s="170">
         <v>42599</v>
       </c>
-      <c r="J10" s="308">
+      <c r="J10" s="170">
         <v>42598</v>
       </c>
-      <c r="K10" s="308" t="s">
+      <c r="K10" s="170" t="s">
         <v>367</v>
       </c>
-      <c r="L10" s="319" t="s">
+      <c r="L10" s="179" t="s">
         <v>459</v>
       </c>
       <c r="N10"/>
-      <c r="O10" s="323"/>
-    </row>
-    <row r="11" spans="1:15" s="70" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="253"/>
-      <c r="B11" s="243" t="s">
+      <c r="O10" s="181"/>
+    </row>
+    <row r="11" spans="1:15" s="70" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="295"/>
+      <c r="B11" s="291" t="s">
         <v>417</v>
       </c>
       <c r="C11" s="62" t="s">
@@ -9562,43 +9506,43 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="70" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="313"/>
-      <c r="B12" s="322"/>
-      <c r="C12" s="324" t="s">
+      <c r="A12" s="294"/>
+      <c r="B12" s="287"/>
+      <c r="C12" s="182" t="s">
         <v>418</v>
       </c>
-      <c r="D12" s="324" t="s">
+      <c r="D12" s="182" t="s">
         <v>441</v>
       </c>
-      <c r="E12" s="324" t="s">
+      <c r="E12" s="182" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="324" t="s">
+      <c r="F12" s="182" t="s">
         <v>419</v>
       </c>
-      <c r="G12" s="324" t="s">
+      <c r="G12" s="182" t="s">
         <v>198</v>
       </c>
-      <c r="H12" s="325">
+      <c r="H12" s="183">
         <v>42605</v>
       </c>
-      <c r="I12" s="325">
+      <c r="I12" s="183">
         <v>42621</v>
       </c>
-      <c r="J12" s="326">
+      <c r="J12" s="184">
         <v>42621</v>
       </c>
-      <c r="K12" s="324" t="s">
+      <c r="K12" s="182" t="s">
         <v>307</v>
       </c>
-      <c r="L12" s="319" t="s">
+      <c r="L12" s="179" t="s">
         <v>459</v>
       </c>
-      <c r="O12" s="327"/>
-    </row>
-    <row r="13" spans="1:15" s="70" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="254"/>
-      <c r="B13" s="251"/>
+      <c r="O12" s="185"/>
+    </row>
+    <row r="13" spans="1:15" s="70" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="296"/>
+      <c r="B13" s="292"/>
       <c r="C13" s="73" t="s">
         <v>457</v>
       </c>
@@ -9620,11 +9564,11 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="234">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="271">
         <v>2</v>
       </c>
-      <c r="B14" s="230" t="s">
+      <c r="B14" s="267" t="s">
         <v>186</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -9667,9 +9611,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="235"/>
-      <c r="B15" s="231"/>
+    <row r="15" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="272"/>
+      <c r="B15" s="268"/>
       <c r="C15" s="98" t="s">
         <v>194</v>
       </c>
@@ -9710,9 +9654,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="235"/>
-      <c r="B16" s="231"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="272"/>
+      <c r="B16" s="268"/>
       <c r="C16" s="98" t="s">
         <v>195</v>
       </c>
@@ -9753,9 +9697,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="236"/>
-      <c r="B17" s="232"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="273"/>
+      <c r="B17" s="269"/>
       <c r="C17" s="21" t="s">
         <v>196</v>
       </c>
@@ -9796,9 +9740,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="237"/>
-      <c r="B18" s="233"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="274"/>
+      <c r="B18" s="270"/>
       <c r="C18" s="21" t="s">
         <v>197</v>
       </c>
@@ -9839,92 +9783,92 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="238">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="279">
         <v>3</v>
       </c>
-      <c r="B19" s="245" t="s">
+      <c r="B19" s="288" t="s">
         <v>420</v>
       </c>
       <c r="C19" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="272" t="s">
+      <c r="D19" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="274" t="s">
+      <c r="E19" s="234" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="280" t="s">
+      <c r="F19" s="242" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="280" t="s">
+      <c r="G19" s="242" t="s">
         <v>198</v>
       </c>
-      <c r="H19" s="195">
+      <c r="H19" s="329">
         <v>42506</v>
       </c>
-      <c r="I19" s="195">
+      <c r="I19" s="329">
         <v>42524</v>
       </c>
-      <c r="J19" s="198">
+      <c r="J19" s="332">
         <v>42523</v>
       </c>
-      <c r="K19" s="193" t="s">
+      <c r="K19" s="239" t="s">
         <v>307</v>
       </c>
-      <c r="L19" s="172" t="s">
+      <c r="L19" s="346" t="s">
         <v>424</v>
       </c>
       <c r="M19" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="191" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="171" t="s">
+      <c r="N19" s="350" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="345" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="239"/>
-      <c r="B20" s="246"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="280"/>
+      <c r="B20" s="232"/>
       <c r="C20" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="246"/>
-      <c r="E20" s="275"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="172"/>
-      <c r="N20" s="192"/>
-      <c r="O20" s="171"/>
-    </row>
-    <row r="21" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="239"/>
-      <c r="B21" s="246"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="240"/>
+      <c r="G20" s="240"/>
+      <c r="H20" s="330"/>
+      <c r="I20" s="330"/>
+      <c r="J20" s="333"/>
+      <c r="K20" s="328"/>
+      <c r="L20" s="346"/>
+      <c r="N20" s="351"/>
+      <c r="O20" s="345"/>
+    </row>
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="280"/>
+      <c r="B21" s="232"/>
       <c r="C21" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="273"/>
-      <c r="E21" s="276"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="194"/>
-      <c r="L21" s="172"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="171"/>
-    </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="240"/>
-      <c r="B22" s="247"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="236"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="243"/>
+      <c r="H21" s="331"/>
+      <c r="I21" s="331"/>
+      <c r="J21" s="334"/>
+      <c r="K21" s="328"/>
+      <c r="L21" s="346"/>
+      <c r="N21" s="351"/>
+      <c r="O21" s="345"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="281"/>
+      <c r="B22" s="289"/>
       <c r="C22" s="104" t="s">
         <v>273</v>
       </c>
@@ -9962,9 +9906,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="240"/>
-      <c r="B23" s="247"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="281"/>
+      <c r="B23" s="289"/>
       <c r="C23" s="104" t="s">
         <v>272</v>
       </c>
@@ -10000,9 +9944,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="240"/>
-      <c r="B24" s="247"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="281"/>
+      <c r="B24" s="289"/>
       <c r="C24" s="109" t="s">
         <v>275</v>
       </c>
@@ -10040,109 +9984,109 @@
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="240"/>
-      <c r="B25" s="247"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="281"/>
+      <c r="B25" s="289"/>
       <c r="C25" s="104" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="277" t="s">
+      <c r="D25" s="237" t="s">
         <v>287</v>
       </c>
-      <c r="E25" s="278" t="s">
+      <c r="E25" s="238" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="279" t="s">
+      <c r="F25" s="241" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="279" t="s">
+      <c r="G25" s="241" t="s">
         <v>198</v>
       </c>
-      <c r="H25" s="193">
+      <c r="H25" s="239">
         <v>42576</v>
       </c>
-      <c r="I25" s="193">
+      <c r="I25" s="239">
         <v>42579</v>
       </c>
-      <c r="J25" s="193">
+      <c r="J25" s="239">
         <v>42579</v>
       </c>
-      <c r="K25" s="202" t="s">
+      <c r="K25" s="335" t="s">
         <v>307</v>
       </c>
-      <c r="L25" s="173" t="s">
+      <c r="L25" s="347" t="s">
         <v>424</v>
       </c>
-      <c r="N25" s="183" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" s="170" t="s">
+      <c r="N25" s="339" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="337" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="241"/>
-      <c r="B26" s="246"/>
+    <row r="26" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="282"/>
+      <c r="B26" s="232"/>
       <c r="C26" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="D26" s="273"/>
-      <c r="E26" s="275"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="174"/>
-      <c r="N26" s="176"/>
-      <c r="O26" s="170"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="240"/>
+      <c r="G26" s="240"/>
+      <c r="H26" s="240"/>
+      <c r="I26" s="240"/>
+      <c r="J26" s="240"/>
+      <c r="K26" s="333"/>
+      <c r="L26" s="348"/>
+      <c r="N26" s="340"/>
+      <c r="O26" s="337"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="328"/>
-      <c r="B27" s="329"/>
+      <c r="A27" s="186"/>
+      <c r="B27" s="290"/>
       <c r="C27" s="64" t="s">
         <v>421</v>
       </c>
-      <c r="D27" s="330" t="s">
+      <c r="D27" s="187" t="s">
         <v>499</v>
       </c>
-      <c r="E27" s="331" t="s">
+      <c r="E27" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="332" t="s">
+      <c r="F27" s="189" t="s">
         <v>183</v>
       </c>
-      <c r="G27" s="332" t="s">
+      <c r="G27" s="189" t="s">
         <v>198</v>
       </c>
-      <c r="H27" s="333">
+      <c r="H27" s="190">
         <v>42607</v>
       </c>
-      <c r="I27" s="333">
+      <c r="I27" s="190">
         <v>42611</v>
       </c>
-      <c r="J27" s="334">
+      <c r="J27" s="191">
         <v>42611</v>
       </c>
-      <c r="K27" s="333" t="s">
+      <c r="K27" s="190" t="s">
         <v>307</v>
       </c>
-      <c r="L27" s="335" t="s">
+      <c r="L27" s="192" t="s">
         <v>424</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="O27" s="336" t="s">
+      <c r="O27" s="193" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="223">
+    <row r="28" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="275">
         <v>4</v>
       </c>
-      <c r="B28" s="248" t="s">
+      <c r="B28" s="257" t="s">
         <v>205</v>
       </c>
       <c r="C28" s="110" t="s">
@@ -10182,9 +10126,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="224"/>
-      <c r="B29" s="249"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="276"/>
+      <c r="B29" s="262"/>
       <c r="C29" s="110" t="s">
         <v>207</v>
       </c>
@@ -10223,48 +10167,48 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="337"/>
-      <c r="B30" s="338"/>
-      <c r="C30" s="339" t="s">
+      <c r="A30" s="277"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="194" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="340" t="s">
+      <c r="D30" s="195" t="s">
         <v>288</v>
       </c>
-      <c r="E30" s="341" t="s">
+      <c r="E30" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="342" t="s">
+      <c r="F30" s="197" t="s">
         <v>183</v>
       </c>
-      <c r="G30" s="342" t="s">
+      <c r="G30" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="H30" s="343">
+      <c r="H30" s="198">
         <v>42572</v>
       </c>
-      <c r="I30" s="343">
+      <c r="I30" s="198">
         <v>42576</v>
       </c>
-      <c r="J30" s="344">
+      <c r="J30" s="199">
         <v>42586</v>
       </c>
-      <c r="K30" s="343" t="s">
+      <c r="K30" s="198" t="s">
         <v>307</v>
       </c>
-      <c r="L30" s="335" t="s">
+      <c r="L30" s="192" t="s">
         <v>424</v>
       </c>
       <c r="N30" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="O30" s="336" t="s">
+      <c r="O30" s="193" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="225"/>
-      <c r="B31" s="250"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="278"/>
+      <c r="B31" s="259"/>
       <c r="C31" s="26" t="s">
         <v>209</v>
       </c>
@@ -10302,11 +10246,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="223">
+    <row r="32" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="275">
         <v>5</v>
       </c>
-      <c r="B32" s="248" t="s">
+      <c r="B32" s="257" t="s">
         <v>210</v>
       </c>
       <c r="C32" s="110" t="s">
@@ -10347,88 +10291,88 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="337"/>
-      <c r="B33" s="338"/>
-      <c r="C33" s="339" t="s">
+      <c r="A33" s="277"/>
+      <c r="B33" s="258"/>
+      <c r="C33" s="194" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="340" t="s">
+      <c r="D33" s="195" t="s">
         <v>289</v>
       </c>
-      <c r="E33" s="341" t="s">
+      <c r="E33" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="342" t="s">
+      <c r="F33" s="197" t="s">
         <v>183</v>
       </c>
-      <c r="G33" s="342" t="s">
+      <c r="G33" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="H33" s="343">
+      <c r="H33" s="198">
         <v>42577</v>
       </c>
-      <c r="I33" s="343">
+      <c r="I33" s="198">
         <v>42579</v>
       </c>
-      <c r="J33" s="344">
+      <c r="J33" s="199">
         <v>42587</v>
       </c>
-      <c r="K33" s="343" t="s">
+      <c r="K33" s="198" t="s">
         <v>307</v>
       </c>
-      <c r="L33" s="335" t="s">
+      <c r="L33" s="192" t="s">
         <v>424</v>
       </c>
       <c r="N33" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="336" t="s">
+      <c r="O33" s="193" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="337"/>
-      <c r="B34" s="338"/>
-      <c r="C34" s="339" t="s">
+      <c r="A34" s="277"/>
+      <c r="B34" s="258"/>
+      <c r="C34" s="194" t="s">
         <v>399</v>
       </c>
-      <c r="D34" s="340" t="s">
+      <c r="D34" s="195" t="s">
         <v>384</v>
       </c>
-      <c r="E34" s="341" t="s">
+      <c r="E34" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="342" t="s">
+      <c r="F34" s="197" t="s">
         <v>183</v>
       </c>
-      <c r="G34" s="342" t="s">
+      <c r="G34" s="197" t="s">
         <v>198</v>
       </c>
-      <c r="H34" s="343">
+      <c r="H34" s="198">
         <v>42585</v>
       </c>
-      <c r="I34" s="343">
+      <c r="I34" s="198">
         <v>42586</v>
       </c>
-      <c r="J34" s="344">
+      <c r="J34" s="199">
         <v>42586</v>
       </c>
-      <c r="K34" s="343" t="s">
+      <c r="K34" s="198" t="s">
         <v>307</v>
       </c>
-      <c r="L34" s="335" t="s">
+      <c r="L34" s="192" t="s">
         <v>424</v>
       </c>
       <c r="N34" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="336" t="s">
+      <c r="O34" s="193" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="225"/>
-      <c r="B35" s="250"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="278"/>
+      <c r="B35" s="259"/>
       <c r="C35" s="26" t="s">
         <v>212</v>
       </c>
@@ -10466,90 +10410,90 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="226">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="301">
         <v>6</v>
       </c>
-      <c r="B36" s="259" t="s">
+      <c r="B36" s="260" t="s">
         <v>213</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="263" t="s">
+      <c r="D36" s="244" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="266" t="s">
+      <c r="E36" s="247" t="s">
         <v>191</v>
       </c>
-      <c r="F36" s="266" t="s">
+      <c r="F36" s="247" t="s">
         <v>182</v>
       </c>
-      <c r="G36" s="266" t="s">
+      <c r="G36" s="247" t="s">
         <v>180</v>
       </c>
-      <c r="H36" s="266" t="s">
+      <c r="H36" s="247" t="s">
         <v>182</v>
       </c>
-      <c r="I36" s="266" t="s">
+      <c r="I36" s="247" t="s">
         <v>182</v>
       </c>
-      <c r="J36" s="269" t="s">
+      <c r="J36" s="250" t="s">
         <v>182</v>
       </c>
-      <c r="K36" s="181" t="s">
+      <c r="K36" s="336" t="s">
         <v>182</v>
       </c>
-      <c r="L36" s="175" t="s">
+      <c r="L36" s="349" t="s">
         <v>424</v>
       </c>
-      <c r="N36" s="176" t="s">
+      <c r="N36" s="340" t="s">
         <v>182</v>
       </c>
-      <c r="O36" s="170" t="s">
+      <c r="O36" s="337" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="227"/>
-      <c r="B37" s="260"/>
+    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="302"/>
+      <c r="B37" s="261"/>
       <c r="C37" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="D37" s="264"/>
-      <c r="E37" s="267"/>
-      <c r="F37" s="267"/>
-      <c r="G37" s="267"/>
-      <c r="H37" s="267"/>
-      <c r="I37" s="267"/>
-      <c r="J37" s="270"/>
-      <c r="K37" s="181"/>
-      <c r="L37" s="175"/>
+      <c r="D37" s="245"/>
+      <c r="E37" s="248"/>
+      <c r="F37" s="248"/>
+      <c r="G37" s="248"/>
+      <c r="H37" s="248"/>
+      <c r="I37" s="248"/>
+      <c r="J37" s="251"/>
+      <c r="K37" s="336"/>
+      <c r="L37" s="349"/>
       <c r="M37" s="34"/>
-      <c r="N37" s="176"/>
-      <c r="O37" s="170"/>
-    </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="227"/>
-      <c r="B38" s="260"/>
+      <c r="N37" s="340"/>
+      <c r="O37" s="337"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="302"/>
+      <c r="B38" s="261"/>
       <c r="C38" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="D38" s="265"/>
-      <c r="E38" s="268"/>
-      <c r="F38" s="268"/>
-      <c r="G38" s="268"/>
-      <c r="H38" s="268"/>
-      <c r="I38" s="268"/>
-      <c r="J38" s="271"/>
-      <c r="K38" s="181"/>
-      <c r="L38" s="175"/>
-      <c r="N38" s="176"/>
-      <c r="O38" s="170"/>
-    </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="224"/>
-      <c r="B39" s="249"/>
+      <c r="D38" s="246"/>
+      <c r="E38" s="249"/>
+      <c r="F38" s="249"/>
+      <c r="G38" s="249"/>
+      <c r="H38" s="249"/>
+      <c r="I38" s="249"/>
+      <c r="J38" s="252"/>
+      <c r="K38" s="336"/>
+      <c r="L38" s="349"/>
+      <c r="N38" s="340"/>
+      <c r="O38" s="337"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="276"/>
+      <c r="B39" s="262"/>
       <c r="C39" s="110" t="s">
         <v>217</v>
       </c>
@@ -10587,9 +10531,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="224"/>
-      <c r="B40" s="249"/>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="276"/>
+      <c r="B40" s="262"/>
       <c r="C40" s="110" t="s">
         <v>218</v>
       </c>
@@ -10627,9 +10571,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="225"/>
-      <c r="B41" s="250"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="278"/>
+      <c r="B41" s="259"/>
       <c r="C41" s="26" t="s">
         <v>212</v>
       </c>
@@ -10667,11 +10611,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="221">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="299">
         <v>7</v>
       </c>
-      <c r="B42" s="257" t="s">
+      <c r="B42" s="255" t="s">
         <v>219</v>
       </c>
       <c r="C42" s="115" t="s">
@@ -10711,9 +10655,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="228"/>
-      <c r="B43" s="261"/>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="303"/>
+      <c r="B43" s="263"/>
       <c r="C43" s="115" t="s">
         <v>221</v>
       </c>
@@ -10751,9 +10695,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="228"/>
-      <c r="B44" s="261"/>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="303"/>
+      <c r="B44" s="263"/>
       <c r="C44" s="115" t="s">
         <v>222</v>
       </c>
@@ -10791,9 +10735,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="229"/>
-      <c r="B45" s="262"/>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="304"/>
+      <c r="B45" s="264"/>
       <c r="C45" s="27" t="s">
         <v>223</v>
       </c>
@@ -10835,48 +10779,48 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="345"/>
-      <c r="B46" s="346"/>
-      <c r="C46" s="347" t="s">
+      <c r="A46" s="305"/>
+      <c r="B46" s="265"/>
+      <c r="C46" s="200" t="s">
         <v>224</v>
       </c>
-      <c r="D46" s="348" t="s">
+      <c r="D46" s="201" t="s">
         <v>291</v>
       </c>
-      <c r="E46" s="349" t="s">
+      <c r="E46" s="202" t="s">
         <v>151</v>
       </c>
-      <c r="F46" s="350" t="s">
+      <c r="F46" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="350" t="s">
+      <c r="G46" s="203" t="s">
         <v>198</v>
       </c>
-      <c r="H46" s="351">
+      <c r="H46" s="204">
         <v>42584</v>
       </c>
-      <c r="I46" s="351">
+      <c r="I46" s="204">
         <v>42584</v>
       </c>
-      <c r="J46" s="352">
+      <c r="J46" s="205">
         <v>42590</v>
       </c>
-      <c r="K46" s="351" t="s">
+      <c r="K46" s="204" t="s">
         <v>307</v>
       </c>
-      <c r="L46" s="335" t="s">
+      <c r="L46" s="192" t="s">
         <v>424</v>
       </c>
       <c r="N46" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="O46" s="336" t="s">
+      <c r="O46" s="193" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="222"/>
-      <c r="B47" s="258"/>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="300"/>
+      <c r="B47" s="256"/>
       <c r="C47" s="115" t="s">
         <v>225</v>
       </c>
@@ -10909,9 +10853,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="229"/>
-      <c r="B48" s="262"/>
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="304"/>
+      <c r="B48" s="264"/>
       <c r="C48" s="27" t="s">
         <v>226</v>
       </c>
@@ -10950,48 +10894,48 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="353"/>
-      <c r="B49" s="354"/>
-      <c r="C49" s="347" t="s">
+      <c r="A49" s="306"/>
+      <c r="B49" s="266"/>
+      <c r="C49" s="200" t="s">
         <v>274</v>
       </c>
-      <c r="D49" s="348" t="s">
+      <c r="D49" s="201" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="350" t="s">
+      <c r="E49" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="F49" s="350" t="s">
+      <c r="F49" s="203" t="s">
         <v>183</v>
       </c>
-      <c r="G49" s="350" t="s">
+      <c r="G49" s="203" t="s">
         <v>198</v>
       </c>
-      <c r="H49" s="351">
+      <c r="H49" s="204">
         <v>42583</v>
       </c>
-      <c r="I49" s="351">
+      <c r="I49" s="204">
         <v>42585</v>
       </c>
-      <c r="J49" s="352">
+      <c r="J49" s="205">
         <v>42585</v>
       </c>
-      <c r="K49" s="351" t="s">
+      <c r="K49" s="204" t="s">
         <v>307</v>
       </c>
-      <c r="L49" s="335" t="s">
+      <c r="L49" s="192" t="s">
         <v>424</v>
       </c>
       <c r="N49" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="336" t="s">
+      <c r="O49" s="193" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="228"/>
-      <c r="B50" s="261"/>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="303"/>
+      <c r="B50" s="263"/>
       <c r="C50" s="115" t="s">
         <v>281</v>
       </c>
@@ -11029,9 +10973,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="220"/>
-      <c r="B51" s="256"/>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="298"/>
+      <c r="B51" s="254"/>
       <c r="C51" s="27" t="s">
         <v>227</v>
       </c>
@@ -11069,11 +11013,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="221">
+    <row r="52" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="299">
         <v>8</v>
       </c>
-      <c r="B52" s="257" t="s">
+      <c r="B52" s="255" t="s">
         <v>228</v>
       </c>
       <c r="C52" s="115" t="s">
@@ -11108,9 +11052,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="222"/>
-      <c r="B53" s="258"/>
+    <row r="53" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="300"/>
+      <c r="B53" s="256"/>
       <c r="C53" s="115" t="s">
         <v>230</v>
       </c>
@@ -11143,9 +11087,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="220"/>
-      <c r="B54" s="256"/>
+    <row r="54" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="298"/>
+      <c r="B54" s="254"/>
       <c r="C54" s="27" t="s">
         <v>231</v>
       </c>
@@ -11183,11 +11127,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="219">
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="297">
         <v>9</v>
       </c>
-      <c r="B55" s="255" t="s">
+      <c r="B55" s="253" t="s">
         <v>233</v>
       </c>
       <c r="C55" s="27" t="s">
@@ -11227,9 +11171,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="220"/>
-      <c r="B56" s="256"/>
+    <row r="56" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="298"/>
+      <c r="B56" s="254"/>
       <c r="C56" s="27" t="s">
         <v>234</v>
       </c>
@@ -11267,11 +11211,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="207">
+    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="309">
         <v>10</v>
       </c>
-      <c r="B57" s="205" t="s">
+      <c r="B57" s="307" t="s">
         <v>235</v>
       </c>
       <c r="C57" s="20" t="s">
@@ -11307,9 +11251,9 @@
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="208"/>
-      <c r="B58" s="214"/>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="310"/>
+      <c r="B58" s="318"/>
       <c r="C58" s="20" t="s">
         <v>221</v>
       </c>
@@ -11343,9 +11287,9 @@
       <c r="N58"/>
       <c r="O58"/>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="208"/>
-      <c r="B59" s="214"/>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="310"/>
+      <c r="B59" s="318"/>
       <c r="C59" s="20" t="s">
         <v>222</v>
       </c>
@@ -11379,9 +11323,9 @@
       <c r="N59"/>
       <c r="O59"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="209"/>
-      <c r="B60" s="214"/>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="311"/>
+      <c r="B60" s="318"/>
       <c r="C60" s="20" t="s">
         <v>237</v>
       </c>
@@ -11416,46 +11360,46 @@
       <c r="O60"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="355"/>
-      <c r="B61" s="356"/>
-      <c r="C61" s="357" t="s">
+      <c r="A61" s="312"/>
+      <c r="B61" s="322"/>
+      <c r="C61" s="206" t="s">
         <v>274</v>
       </c>
-      <c r="D61" s="358" t="s">
+      <c r="D61" s="207" t="s">
         <v>292</v>
       </c>
-      <c r="E61" s="359" t="s">
+      <c r="E61" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="F61" s="359" t="s">
+      <c r="F61" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="G61" s="359" t="s">
+      <c r="G61" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="H61" s="360">
+      <c r="H61" s="209">
         <v>42552</v>
       </c>
-      <c r="I61" s="360">
+      <c r="I61" s="209">
         <v>42585</v>
       </c>
-      <c r="J61" s="360">
+      <c r="J61" s="209">
         <v>42585</v>
       </c>
-      <c r="K61" s="351" t="s">
+      <c r="K61" s="204" t="s">
         <v>307</v>
       </c>
-      <c r="L61" s="361" t="s">
+      <c r="L61" s="210" t="s">
         <v>458</v>
       </c>
       <c r="N61" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="O61" s="323"/>
-    </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="208"/>
-      <c r="B62" s="214"/>
+      <c r="O61" s="181"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="310"/>
+      <c r="B62" s="318"/>
       <c r="C62" s="20" t="s">
         <v>281</v>
       </c>
@@ -11490,44 +11434,44 @@
       <c r="O62"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="362"/>
-      <c r="B63" s="356"/>
-      <c r="C63" s="357" t="s">
+      <c r="A63" s="313"/>
+      <c r="B63" s="322"/>
+      <c r="C63" s="206" t="s">
         <v>282</v>
       </c>
-      <c r="D63" s="358" t="s">
+      <c r="D63" s="207" t="s">
         <v>293</v>
       </c>
-      <c r="E63" s="359" t="s">
+      <c r="E63" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="F63" s="359" t="s">
+      <c r="F63" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="G63" s="359" t="s">
+      <c r="G63" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="H63" s="360">
+      <c r="H63" s="209">
         <v>42586</v>
       </c>
-      <c r="I63" s="360">
+      <c r="I63" s="209">
         <v>42587</v>
       </c>
-      <c r="J63" s="360">
+      <c r="J63" s="209">
         <v>42584</v>
       </c>
-      <c r="K63" s="351" t="s">
+      <c r="K63" s="204" t="s">
         <v>307</v>
       </c>
-      <c r="L63" s="361" t="s">
+      <c r="L63" s="210" t="s">
         <v>458</v>
       </c>
       <c r="N63"/>
-      <c r="O63" s="323"/>
-    </row>
-    <row r="64" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="209"/>
-      <c r="B64" s="206"/>
+      <c r="O63" s="181"/>
+    </row>
+    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="311"/>
+      <c r="B64" s="308"/>
       <c r="C64" s="20" t="s">
         <v>238</v>
       </c>
@@ -11561,33 +11505,33 @@
       <c r="N64"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="209"/>
-      <c r="B65" s="205" t="s">
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="311"/>
+      <c r="B65" s="307" t="s">
         <v>253</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D65" s="203" t="s">
+      <c r="D65" s="219" t="s">
         <v>294</v>
       </c>
-      <c r="E65" s="179" t="s">
+      <c r="E65" s="221" t="s">
         <v>151</v>
       </c>
-      <c r="F65" s="179" t="s">
+      <c r="F65" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="G65" s="179" t="s">
+      <c r="G65" s="221" t="s">
         <v>198</v>
       </c>
-      <c r="H65" s="177">
-        <v>42594</v>
-      </c>
-      <c r="I65" s="177">
-        <v>42599</v>
-      </c>
-      <c r="J65" s="179"/>
+      <c r="H65" s="223">
+        <v>42625</v>
+      </c>
+      <c r="I65" s="223">
+        <v>42630</v>
+      </c>
+      <c r="J65" s="221"/>
       <c r="K65" s="31" t="s">
         <v>285</v>
       </c>
@@ -11597,19 +11541,19 @@
       <c r="N65"/>
       <c r="O65"/>
     </row>
-    <row r="66" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="209"/>
-      <c r="B66" s="214"/>
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="311"/>
+      <c r="B66" s="318"/>
       <c r="C66" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D66" s="204"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="180"/>
-      <c r="G66" s="180"/>
-      <c r="H66" s="178"/>
-      <c r="I66" s="178"/>
-      <c r="J66" s="180"/>
+      <c r="D66" s="327"/>
+      <c r="E66" s="222"/>
+      <c r="F66" s="222"/>
+      <c r="G66" s="222"/>
+      <c r="H66" s="326"/>
+      <c r="I66" s="326"/>
+      <c r="J66" s="222"/>
       <c r="K66" s="31"/>
       <c r="L66" s="72" t="s">
         <v>458</v>
@@ -11617,9 +11561,9 @@
       <c r="N66"/>
       <c r="O66"/>
     </row>
-    <row r="67" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="209"/>
-      <c r="B67" s="206"/>
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="311"/>
+      <c r="B67" s="308"/>
       <c r="C67" s="20" t="s">
         <v>241</v>
       </c>
@@ -11653,9 +11597,9 @@
       <c r="N67"/>
       <c r="O67"/>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="209"/>
-      <c r="B68" s="205" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="311"/>
+      <c r="B68" s="307" t="s">
         <v>252</v>
       </c>
       <c r="C68" s="20" t="s">
@@ -11674,10 +11618,10 @@
         <v>198</v>
       </c>
       <c r="H68" s="57">
-        <v>42600</v>
+        <v>42631</v>
       </c>
       <c r="I68" s="57">
-        <v>42604</v>
+        <v>42635</v>
       </c>
       <c r="J68" s="58"/>
       <c r="K68" s="31" t="s">
@@ -11689,9 +11633,9 @@
       <c r="N68"/>
       <c r="O68"/>
     </row>
-    <row r="69" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="209"/>
-      <c r="B69" s="214"/>
+    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="311"/>
+      <c r="B69" s="318"/>
       <c r="C69" s="20" t="s">
         <v>243</v>
       </c>
@@ -11725,9 +11669,9 @@
       <c r="N69"/>
       <c r="O69"/>
     </row>
-    <row r="70" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="209"/>
-      <c r="B70" s="214"/>
+    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="311"/>
+      <c r="B70" s="318"/>
       <c r="C70" s="20" t="s">
         <v>244</v>
       </c>
@@ -11761,9 +11705,9 @@
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="209"/>
-      <c r="B71" s="214"/>
+    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="311"/>
+      <c r="B71" s="318"/>
       <c r="C71" s="20" t="s">
         <v>245</v>
       </c>
@@ -11797,31 +11741,31 @@
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="209"/>
-      <c r="B72" s="214"/>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="311"/>
+      <c r="B72" s="318"/>
       <c r="C72" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D72" s="203" t="s">
+      <c r="D72" s="219" t="s">
         <v>296</v>
       </c>
-      <c r="E72" s="179" t="s">
+      <c r="E72" s="221" t="s">
         <v>151</v>
       </c>
-      <c r="F72" s="179" t="s">
+      <c r="F72" s="221" t="s">
         <v>134</v>
       </c>
-      <c r="G72" s="179" t="s">
+      <c r="G72" s="221" t="s">
         <v>198</v>
       </c>
-      <c r="H72" s="177">
-        <v>42605</v>
-      </c>
-      <c r="I72" s="177">
-        <v>42608</v>
-      </c>
-      <c r="J72" s="179"/>
+      <c r="H72" s="223">
+        <v>42636</v>
+      </c>
+      <c r="I72" s="223">
+        <v>42639</v>
+      </c>
+      <c r="J72" s="221"/>
       <c r="K72" s="31" t="s">
         <v>285</v>
       </c>
@@ -11831,19 +11775,19 @@
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="1:15" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="209"/>
-      <c r="B73" s="214"/>
+    <row r="73" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="311"/>
+      <c r="B73" s="318"/>
       <c r="C73" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D73" s="286"/>
-      <c r="E73" s="180"/>
-      <c r="F73" s="180"/>
-      <c r="G73" s="180"/>
-      <c r="H73" s="180"/>
-      <c r="I73" s="180"/>
-      <c r="J73" s="180"/>
+      <c r="D73" s="220"/>
+      <c r="E73" s="222"/>
+      <c r="F73" s="222"/>
+      <c r="G73" s="222"/>
+      <c r="H73" s="222"/>
+      <c r="I73" s="222"/>
+      <c r="J73" s="222"/>
       <c r="K73" s="31"/>
       <c r="L73" s="72" t="s">
         <v>458</v>
@@ -11851,9 +11795,9 @@
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="209"/>
-      <c r="B74" s="206"/>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="311"/>
+      <c r="B74" s="308"/>
       <c r="C74" s="20" t="s">
         <v>248</v>
       </c>
@@ -11870,10 +11814,10 @@
         <v>198</v>
       </c>
       <c r="H74" s="57">
-        <v>42611</v>
+        <v>42642</v>
       </c>
       <c r="I74" s="57">
-        <v>42612</v>
+        <v>42643</v>
       </c>
       <c r="J74" s="58"/>
       <c r="K74" s="31" t="s">
@@ -11885,9 +11829,9 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="209"/>
-      <c r="B75" s="205" t="s">
+    <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="311"/>
+      <c r="B75" s="307" t="s">
         <v>251</v>
       </c>
       <c r="C75" s="20" t="s">
@@ -11923,9 +11867,9 @@
       <c r="N75"/>
       <c r="O75"/>
     </row>
-    <row r="76" spans="1:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="209"/>
-      <c r="B76" s="214"/>
+    <row r="76" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="311"/>
+      <c r="B76" s="318"/>
       <c r="C76" s="20" t="s">
         <v>283</v>
       </c>
@@ -11959,9 +11903,9 @@
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="209"/>
-      <c r="B77" s="206"/>
+    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="311"/>
+      <c r="B77" s="308"/>
       <c r="C77" s="20" t="s">
         <v>250</v>
       </c>
@@ -11993,9 +11937,9 @@
       <c r="N77"/>
       <c r="O77"/>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="208"/>
-      <c r="B78" s="215"/>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="310"/>
+      <c r="B78" s="319"/>
       <c r="C78" s="20" t="s">
         <v>254</v>
       </c>
@@ -12030,44 +11974,44 @@
       <c r="O78"/>
     </row>
     <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="355"/>
-      <c r="B79" s="363"/>
-      <c r="C79" s="357" t="s">
+      <c r="A79" s="312"/>
+      <c r="B79" s="320"/>
+      <c r="C79" s="206" t="s">
         <v>255</v>
       </c>
-      <c r="D79" s="358" t="s">
+      <c r="D79" s="207" t="s">
         <v>298</v>
       </c>
-      <c r="E79" s="359" t="s">
+      <c r="E79" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="F79" s="359" t="s">
+      <c r="F79" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="G79" s="359" t="s">
+      <c r="G79" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="H79" s="360">
+      <c r="H79" s="209">
         <v>42593</v>
       </c>
-      <c r="I79" s="360">
+      <c r="I79" s="209">
         <v>42598</v>
       </c>
-      <c r="J79" s="360">
+      <c r="J79" s="209">
         <v>42598</v>
       </c>
-      <c r="K79" s="351" t="s">
+      <c r="K79" s="204" t="s">
         <v>307</v>
       </c>
-      <c r="L79" s="361" t="s">
+      <c r="L79" s="210" t="s">
         <v>458</v>
       </c>
       <c r="N79"/>
-      <c r="O79" s="323"/>
-    </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="208"/>
-      <c r="B80" s="215"/>
+      <c r="O79" s="181"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="310"/>
+      <c r="B80" s="319"/>
       <c r="C80" s="20" t="s">
         <v>256</v>
       </c>
@@ -12101,9 +12045,9 @@
       <c r="N80"/>
       <c r="O80"/>
     </row>
-    <row r="81" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="209"/>
-      <c r="B81" s="205" t="s">
+    <row r="81" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="311"/>
+      <c r="B81" s="307" t="s">
         <v>259</v>
       </c>
       <c r="C81" s="20" t="s">
@@ -12122,10 +12066,10 @@
         <v>182</v>
       </c>
       <c r="H81" s="57">
-        <v>42599</v>
+        <v>42630</v>
       </c>
       <c r="I81" s="57">
-        <v>42601</v>
+        <v>42632</v>
       </c>
       <c r="J81" s="58"/>
       <c r="K81" s="31" t="s">
@@ -12138,43 +12082,43 @@
       <c r="O81"/>
     </row>
     <row r="82" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="355"/>
-      <c r="B82" s="364"/>
-      <c r="C82" s="357" t="s">
+      <c r="A82" s="312"/>
+      <c r="B82" s="321"/>
+      <c r="C82" s="206" t="s">
         <v>258</v>
       </c>
-      <c r="D82" s="358" t="s">
+      <c r="D82" s="207" t="s">
         <v>293</v>
       </c>
-      <c r="E82" s="359" t="s">
+      <c r="E82" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="F82" s="359" t="s">
+      <c r="F82" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="G82" s="359" t="s">
+      <c r="G82" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="H82" s="360">
+      <c r="H82" s="209">
         <v>42586</v>
       </c>
-      <c r="I82" s="360">
+      <c r="I82" s="209">
         <v>42587</v>
       </c>
-      <c r="J82" s="360">
+      <c r="J82" s="209">
         <v>42584</v>
       </c>
-      <c r="K82" s="351" t="s">
+      <c r="K82" s="204" t="s">
         <v>307</v>
       </c>
-      <c r="L82" s="361" t="s">
+      <c r="L82" s="210" t="s">
         <v>458</v>
       </c>
       <c r="N82"/>
-      <c r="O82" s="323"/>
-    </row>
-    <row r="83" spans="1:15" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="208"/>
+      <c r="O82" s="181"/>
+    </row>
+    <row r="83" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="310"/>
       <c r="B83" s="19" t="s">
         <v>260</v>
       </c>
@@ -12211,8 +12155,8 @@
       <c r="N83"/>
       <c r="O83"/>
     </row>
-    <row r="84" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="209"/>
+    <row r="84" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="311"/>
       <c r="B84" s="20" t="s">
         <v>262</v>
       </c>
@@ -12220,7 +12164,7 @@
         <v>263</v>
       </c>
       <c r="D84" s="68" t="s">
-        <v>305</v>
+        <v>502</v>
       </c>
       <c r="E84" s="58" t="s">
         <v>151</v>
@@ -12243,9 +12187,9 @@
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="209"/>
-      <c r="B85" s="205" t="s">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="311"/>
+      <c r="B85" s="307" t="s">
         <v>264</v>
       </c>
       <c r="C85" s="20" t="s">
@@ -12263,8 +12207,12 @@
       <c r="G85" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="H85" s="58"/>
-      <c r="I85" s="58"/>
+      <c r="H85" s="57">
+        <v>42628</v>
+      </c>
+      <c r="I85" s="57">
+        <v>42629</v>
+      </c>
       <c r="J85" s="58"/>
       <c r="K85" s="31" t="s">
         <v>285</v>
@@ -12275,14 +12223,14 @@
       <c r="N85"/>
       <c r="O85"/>
     </row>
-    <row r="86" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="209"/>
-      <c r="B86" s="206"/>
+    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="311"/>
+      <c r="B86" s="308"/>
       <c r="C86" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D86" s="68" t="s">
-        <v>305</v>
+        <v>502</v>
       </c>
       <c r="E86" s="58" t="s">
         <v>151</v>
@@ -12305,16 +12253,16 @@
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="209"/>
-      <c r="B87" s="205" t="s">
+    <row r="87" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="311"/>
+      <c r="B87" s="307" t="s">
         <v>267</v>
       </c>
       <c r="C87" s="20" t="s">
         <v>268</v>
       </c>
       <c r="D87" s="68" t="s">
-        <v>305</v>
+        <v>502</v>
       </c>
       <c r="E87" s="58" t="s">
         <v>151</v>
@@ -12337,14 +12285,14 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="210"/>
-      <c r="B88" s="206"/>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="314"/>
+      <c r="B88" s="308"/>
       <c r="C88" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D88" s="68" t="s">
-        <v>305</v>
+        <v>502</v>
       </c>
       <c r="E88" s="58" t="s">
         <v>151</v>
@@ -12367,11 +12315,11 @@
       <c r="N88"/>
       <c r="O88"/>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="216">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="323">
         <v>11</v>
       </c>
-      <c r="B89" s="211" t="s">
+      <c r="B89" s="315" t="s">
         <v>271</v>
       </c>
       <c r="C89" s="119" t="s">
@@ -12411,214 +12359,134 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="216"/>
-      <c r="B90" s="211"/>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="323"/>
+      <c r="B90" s="315"/>
       <c r="C90" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="D90" s="282" t="s">
+      <c r="D90" s="224" t="s">
         <v>287</v>
       </c>
-      <c r="E90" s="285" t="s">
+      <c r="E90" s="227" t="s">
         <v>151</v>
       </c>
-      <c r="F90" s="285" t="s">
+      <c r="F90" s="227" t="s">
         <v>183</v>
       </c>
-      <c r="G90" s="285" t="s">
+      <c r="G90" s="227" t="s">
         <v>198</v>
       </c>
-      <c r="H90" s="185">
+      <c r="H90" s="230">
         <v>42576</v>
       </c>
-      <c r="I90" s="185">
+      <c r="I90" s="230">
         <v>42579</v>
       </c>
-      <c r="J90" s="188">
+      <c r="J90" s="342">
         <v>42579</v>
       </c>
-      <c r="K90" s="182" t="s">
+      <c r="K90" s="338" t="s">
         <v>307</v>
       </c>
-      <c r="L90" s="182" t="s">
+      <c r="L90" s="338" t="s">
         <v>424</v>
       </c>
-      <c r="N90" s="183" t="s">
-        <v>19</v>
-      </c>
-      <c r="O90" s="170" t="s">
+      <c r="N90" s="339" t="s">
+        <v>19</v>
+      </c>
+      <c r="O90" s="337" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="217"/>
-      <c r="B91" s="212"/>
+    <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="324"/>
+      <c r="B91" s="316"/>
       <c r="C91" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="D91" s="283"/>
-      <c r="E91" s="186"/>
-      <c r="F91" s="186"/>
-      <c r="G91" s="186"/>
-      <c r="H91" s="186"/>
-      <c r="I91" s="186"/>
-      <c r="J91" s="189"/>
-      <c r="K91" s="184"/>
-      <c r="L91" s="182"/>
-      <c r="N91" s="176"/>
-      <c r="O91" s="170"/>
-    </row>
-    <row r="92" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="218"/>
-      <c r="B92" s="213"/>
+      <c r="D91" s="225"/>
+      <c r="E91" s="228"/>
+      <c r="F91" s="228"/>
+      <c r="G91" s="228"/>
+      <c r="H91" s="228"/>
+      <c r="I91" s="228"/>
+      <c r="J91" s="343"/>
+      <c r="K91" s="341"/>
+      <c r="L91" s="338"/>
+      <c r="N91" s="340"/>
+      <c r="O91" s="337"/>
+    </row>
+    <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="325"/>
+      <c r="B92" s="317"/>
       <c r="C92" s="154" t="s">
         <v>284</v>
       </c>
-      <c r="D92" s="284"/>
-      <c r="E92" s="187"/>
-      <c r="F92" s="187"/>
-      <c r="G92" s="187"/>
-      <c r="H92" s="187"/>
-      <c r="I92" s="187"/>
-      <c r="J92" s="190"/>
-      <c r="K92" s="184"/>
-      <c r="L92" s="182"/>
-      <c r="N92" s="176"/>
-      <c r="O92" s="170"/>
+      <c r="D92" s="226"/>
+      <c r="E92" s="229"/>
+      <c r="F92" s="229"/>
+      <c r="G92" s="229"/>
+      <c r="H92" s="229"/>
+      <c r="I92" s="229"/>
+      <c r="J92" s="344"/>
+      <c r="K92" s="341"/>
+      <c r="L92" s="338"/>
+      <c r="N92" s="340"/>
+      <c r="O92" s="337"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="365">
+      <c r="A93" s="211">
         <v>12</v>
       </c>
-      <c r="B93" s="366" t="s">
+      <c r="B93" s="212" t="s">
         <v>460</v>
       </c>
-      <c r="C93" s="366" t="s">
+      <c r="C93" s="212" t="s">
         <v>497</v>
       </c>
-      <c r="D93" s="367" t="s">
+      <c r="D93" s="213" t="s">
         <v>498</v>
       </c>
-      <c r="E93" s="368" t="s">
+      <c r="E93" s="214" t="s">
         <v>151</v>
       </c>
-      <c r="F93" s="369" t="s">
+      <c r="F93" s="215" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="369" t="s">
+      <c r="G93" s="215" t="s">
         <v>198</v>
       </c>
-      <c r="H93" s="370">
+      <c r="H93" s="216">
         <v>42611</v>
       </c>
-      <c r="I93" s="370">
+      <c r="I93" s="216">
         <v>42611</v>
       </c>
-      <c r="J93" s="371">
+      <c r="J93" s="217">
         <v>42611</v>
       </c>
-      <c r="K93" s="369" t="s">
+      <c r="K93" s="215" t="s">
         <v>307</v>
       </c>
-      <c r="L93" s="372" t="s">
+      <c r="L93" s="218" t="s">
         <v>424</v>
       </c>
-      <c r="O93" s="336" t="s">
+      <c r="O93" s="193" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O93">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Manual/Script"/>
-        <filter val="Script"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters blank="1">
-        <dateGroupItem year="2016" month="8" dateTimeGrouping="month"/>
-        <dateGroupItem year="2016" month="9" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters blank="1">
-        <filter val="Completed"/>
-        <filter val="Script-Ready"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O93"/>
   <mergeCells count="89">
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A57:A88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="N36:N38"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="N25:N26"/>
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="J65:J66"/>
     <mergeCell ref="K36:K38"/>
@@ -12631,101 +12499,162 @@
     <mergeCell ref="J72:J73"/>
     <mergeCell ref="I90:I92"/>
     <mergeCell ref="J90:J92"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="N36:N38"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A57:A88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="H72:H73"/>
   </mergeCells>
   <conditionalFormatting sqref="K1:L2 K39:L40 K28:L30 K33:L34 K36:L36 K42:L42 K22:L25 K3:K10 L3:L13">
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>IF(K1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D23 D28:D36 D25 D39:D41 D14:D18 D1:D10">
-    <cfRule type="expression" dxfId="21" priority="26">
+    <cfRule type="expression" dxfId="17" priority="26">
       <formula>IF(M1="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:L14 N14:N17 L14:L19 L22:L25 L27:L36 L39:L56">
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>IF(K14="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15 K15:L15">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>IF(K15="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:N17 K16:L16">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>IF(K16="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>IF(M19="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:L19">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>IF(K19="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:L32">
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>IF(K32="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93:D1048576 D1:D10 D14:D81 D83:D90">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K43:L81 K83:L90">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>IF(K43="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:L2 K3:K10 K14:L19 L3:L13 K93:L1048576 N14:N18 N31 N35 N41 K22:L25 K20:K21 K27:L36 K26 K39:L81 K37:K38 K83:L90">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="Script-Ready">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Script-Ready">
       <formula>NOT(ISERROR(SEARCH("Script-Ready",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L93">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>IF(L93="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K82:L82">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>IF(K82="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K82:L82">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Script-Ready">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Script-Ready">
       <formula>NOT(ISERROR(SEARCH("Script-Ready",K82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>IF(K11="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>IF(M11="Completed",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Script-Ready">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Script-Ready">
       <formula>NOT(ISERROR(SEARCH("Script-Ready",K11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12805,16 +12734,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="293">
+      <c r="A2" s="358">
         <v>1</v>
       </c>
-      <c r="B2" s="290" t="s">
+      <c r="B2" s="355" t="s">
         <v>438</v>
       </c>
       <c r="C2" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="290" t="s">
+      <c r="D2" s="355" t="s">
         <v>425</v>
       </c>
       <c r="E2" s="81" t="s">
@@ -12831,12 +12760,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="294"/>
-      <c r="B3" s="291"/>
+      <c r="A3" s="359"/>
+      <c r="B3" s="356"/>
       <c r="C3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="291"/>
+      <c r="D3" s="356"/>
       <c r="E3" s="81" t="s">
         <v>19</v>
       </c>
@@ -12849,12 +12778,12 @@
       <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="294"/>
-      <c r="B4" s="291"/>
+      <c r="A4" s="359"/>
+      <c r="B4" s="356"/>
       <c r="C4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="356"/>
       <c r="E4" s="81" t="s">
         <v>19</v>
       </c>
@@ -12869,12 +12798,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="294"/>
-      <c r="B5" s="291"/>
+      <c r="A5" s="359"/>
+      <c r="B5" s="356"/>
       <c r="C5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="291"/>
+      <c r="D5" s="356"/>
       <c r="E5" s="81" t="s">
         <v>19</v>
       </c>
@@ -12889,12 +12818,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="294"/>
-      <c r="B6" s="291"/>
+      <c r="A6" s="359"/>
+      <c r="B6" s="356"/>
       <c r="C6" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="291"/>
+      <c r="D6" s="356"/>
       <c r="E6" s="81" t="s">
         <v>19</v>
       </c>
@@ -12909,12 +12838,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="294"/>
-      <c r="B7" s="291"/>
+      <c r="A7" s="359"/>
+      <c r="B7" s="356"/>
       <c r="C7" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="291"/>
+      <c r="D7" s="356"/>
       <c r="E7" s="81" t="s">
         <v>19</v>
       </c>
@@ -12929,12 +12858,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="295"/>
-      <c r="B8" s="292"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="357"/>
       <c r="C8" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="292"/>
+      <c r="D8" s="357"/>
       <c r="E8" s="81" t="s">
         <v>19</v>
       </c>
@@ -13004,16 +12933,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="293">
+      <c r="A2" s="358">
         <v>1</v>
       </c>
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="358" t="s">
         <v>467</v>
       </c>
       <c r="C2" s="144" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="290" t="s">
+      <c r="D2" s="355" t="s">
         <v>276</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -13030,12 +12959,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="294"/>
-      <c r="B3" s="294"/>
+      <c r="A3" s="359"/>
+      <c r="B3" s="359"/>
       <c r="C3" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="291"/>
+      <c r="D3" s="356"/>
       <c r="E3" s="39" t="s">
         <v>19</v>
       </c>
@@ -13048,12 +12977,12 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="294"/>
-      <c r="B4" s="294"/>
+      <c r="A4" s="359"/>
+      <c r="B4" s="359"/>
       <c r="C4" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="356"/>
       <c r="E4" s="39" t="s">
         <v>19</v>
       </c>
@@ -13068,12 +12997,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="294"/>
-      <c r="B5" s="294"/>
+      <c r="A5" s="359"/>
+      <c r="B5" s="359"/>
       <c r="C5" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="291"/>
+      <c r="D5" s="356"/>
       <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
@@ -13088,12 +13017,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="294"/>
-      <c r="B6" s="294"/>
+      <c r="A6" s="359"/>
+      <c r="B6" s="359"/>
       <c r="C6" s="145" t="s">
         <v>332</v>
       </c>
-      <c r="D6" s="291"/>
+      <c r="D6" s="356"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -13108,12 +13037,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="294"/>
-      <c r="B7" s="294"/>
+      <c r="A7" s="359"/>
+      <c r="B7" s="359"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="291"/>
+      <c r="D7" s="356"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -13128,12 +13057,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="294"/>
-      <c r="B8" s="294"/>
+      <c r="A8" s="359"/>
+      <c r="B8" s="359"/>
       <c r="C8" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="291"/>
+      <c r="D8" s="356"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -13148,12 +13077,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="295"/>
-      <c r="B9" s="295"/>
+      <c r="A9" s="360"/>
+      <c r="B9" s="360"/>
       <c r="C9" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="292"/>
+      <c r="D9" s="357"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -13224,16 +13153,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="304">
+      <c r="A2" s="369">
         <v>1</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="368" t="s">
         <v>274</v>
       </c>
       <c r="C2" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="305" t="s">
+      <c r="D2" s="370" t="s">
         <v>292</v>
       </c>
       <c r="E2" s="81" t="s">
@@ -13250,12 +13179,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="304"/>
-      <c r="B3" s="303"/>
+      <c r="A3" s="369"/>
+      <c r="B3" s="368"/>
       <c r="C3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="306"/>
+      <c r="D3" s="371"/>
       <c r="E3" s="81" t="s">
         <v>19</v>
       </c>
@@ -13268,12 +13197,12 @@
       <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="304"/>
-      <c r="B4" s="303"/>
+      <c r="A4" s="369"/>
+      <c r="B4" s="368"/>
       <c r="C4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="306"/>
+      <c r="D4" s="371"/>
       <c r="E4" s="81" t="s">
         <v>19</v>
       </c>
@@ -13288,12 +13217,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="304"/>
-      <c r="B5" s="303"/>
+      <c r="A5" s="369"/>
+      <c r="B5" s="368"/>
       <c r="C5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="306"/>
+      <c r="D5" s="371"/>
       <c r="E5" s="81" t="s">
         <v>19</v>
       </c>
@@ -13308,12 +13237,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="304"/>
-      <c r="B6" s="303"/>
+      <c r="A6" s="369"/>
+      <c r="B6" s="368"/>
       <c r="C6" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="306"/>
+      <c r="D6" s="371"/>
       <c r="E6" s="81" t="s">
         <v>19</v>
       </c>
@@ -13328,12 +13257,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="304"/>
-      <c r="B7" s="303"/>
+      <c r="A7" s="369"/>
+      <c r="B7" s="368"/>
       <c r="C7" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="306"/>
+      <c r="D7" s="371"/>
       <c r="E7" s="81" t="s">
         <v>19</v>
       </c>
@@ -13348,12 +13277,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="304"/>
-      <c r="B8" s="303"/>
+      <c r="A8" s="369"/>
+      <c r="B8" s="368"/>
       <c r="C8" s="81" t="s">
         <v>468</v>
       </c>
-      <c r="D8" s="306"/>
+      <c r="D8" s="371"/>
       <c r="E8" s="82" t="s">
         <v>19</v>
       </c>
@@ -13366,12 +13295,12 @@
       <c r="H8" s="82"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="304"/>
-      <c r="B9" s="303"/>
+      <c r="A9" s="369"/>
+      <c r="B9" s="368"/>
       <c r="C9" s="81" t="s">
         <v>469</v>
       </c>
-      <c r="D9" s="306"/>
+      <c r="D9" s="371"/>
       <c r="E9" s="82" t="s">
         <v>19</v>
       </c>
@@ -13386,12 +13315,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="304"/>
-      <c r="B10" s="303"/>
+      <c r="A10" s="369"/>
+      <c r="B10" s="368"/>
       <c r="C10" s="81" t="s">
         <v>470</v>
       </c>
-      <c r="D10" s="306"/>
+      <c r="D10" s="371"/>
       <c r="E10" s="82" t="s">
         <v>19</v>
       </c>
@@ -13404,12 +13333,12 @@
       <c r="H10" s="82"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="304"/>
-      <c r="B11" s="303"/>
+      <c r="A11" s="369"/>
+      <c r="B11" s="368"/>
       <c r="C11" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="D11" s="306"/>
+      <c r="D11" s="371"/>
       <c r="E11" s="82" t="s">
         <v>19</v>
       </c>
@@ -13424,12 +13353,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="304"/>
-      <c r="B12" s="303"/>
+      <c r="A12" s="369"/>
+      <c r="B12" s="368"/>
       <c r="C12" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="306"/>
+      <c r="D12" s="371"/>
       <c r="E12" s="82" t="s">
         <v>19</v>
       </c>
@@ -13444,12 +13373,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="304"/>
-      <c r="B13" s="303"/>
+      <c r="A13" s="369"/>
+      <c r="B13" s="368"/>
       <c r="C13" s="81" t="s">
         <v>471</v>
       </c>
-      <c r="D13" s="306"/>
+      <c r="D13" s="371"/>
       <c r="E13" s="82" t="s">
         <v>19</v>
       </c>
@@ -13464,12 +13393,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="304"/>
-      <c r="B14" s="303"/>
+      <c r="A14" s="369"/>
+      <c r="B14" s="368"/>
       <c r="C14" s="81" t="s">
         <v>403</v>
       </c>
-      <c r="D14" s="306"/>
+      <c r="D14" s="371"/>
       <c r="E14" s="82" t="s">
         <v>19</v>
       </c>
@@ -13484,12 +13413,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="304"/>
-      <c r="B15" s="303"/>
+      <c r="A15" s="369"/>
+      <c r="B15" s="368"/>
       <c r="C15" s="81" t="s">
         <v>472</v>
       </c>
-      <c r="D15" s="306"/>
+      <c r="D15" s="371"/>
       <c r="E15" s="82" t="s">
         <v>19</v>
       </c>
@@ -13502,12 +13431,12 @@
       <c r="H15" s="82"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="304"/>
-      <c r="B16" s="303"/>
+      <c r="A16" s="369"/>
+      <c r="B16" s="368"/>
       <c r="C16" s="81" t="s">
         <v>473</v>
       </c>
-      <c r="D16" s="306"/>
+      <c r="D16" s="371"/>
       <c r="E16" s="82" t="s">
         <v>19</v>
       </c>
@@ -13522,12 +13451,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="304"/>
-      <c r="B17" s="303"/>
+      <c r="A17" s="369"/>
+      <c r="B17" s="368"/>
       <c r="C17" s="81" t="s">
         <v>474</v>
       </c>
-      <c r="D17" s="306"/>
+      <c r="D17" s="371"/>
       <c r="E17" s="82" t="s">
         <v>19</v>
       </c>
@@ -13542,12 +13471,12 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="304"/>
-      <c r="B18" s="303"/>
+      <c r="A18" s="369"/>
+      <c r="B18" s="368"/>
       <c r="C18" s="81" t="s">
         <v>475</v>
       </c>
-      <c r="D18" s="306"/>
+      <c r="D18" s="371"/>
       <c r="E18" s="82" t="s">
         <v>19</v>
       </c>
@@ -13562,12 +13491,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="304"/>
-      <c r="B19" s="303"/>
+      <c r="A19" s="369"/>
+      <c r="B19" s="368"/>
       <c r="C19" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="D19" s="306"/>
+      <c r="D19" s="371"/>
       <c r="E19" s="82" t="s">
         <v>19</v>
       </c>
@@ -13582,12 +13511,12 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="304"/>
-      <c r="B20" s="303"/>
+      <c r="A20" s="369"/>
+      <c r="B20" s="368"/>
       <c r="C20" s="81" t="s">
         <v>477</v>
       </c>
-      <c r="D20" s="306"/>
+      <c r="D20" s="371"/>
       <c r="E20" s="82" t="s">
         <v>19</v>
       </c>
@@ -13602,12 +13531,12 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="304"/>
-      <c r="B21" s="303"/>
+      <c r="A21" s="369"/>
+      <c r="B21" s="368"/>
       <c r="C21" s="81" t="s">
         <v>478</v>
       </c>
-      <c r="D21" s="306"/>
+      <c r="D21" s="371"/>
       <c r="E21" s="82" t="s">
         <v>19</v>
       </c>
@@ -13620,12 +13549,12 @@
       <c r="H21" s="82"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="304"/>
-      <c r="B22" s="303"/>
+      <c r="A22" s="369"/>
+      <c r="B22" s="368"/>
       <c r="C22" s="81" t="s">
         <v>479</v>
       </c>
-      <c r="D22" s="306"/>
+      <c r="D22" s="371"/>
       <c r="E22" s="82" t="s">
         <v>19</v>
       </c>
@@ -13638,12 +13567,12 @@
       <c r="H22" s="82"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="304"/>
-      <c r="B23" s="303"/>
+      <c r="A23" s="369"/>
+      <c r="B23" s="368"/>
       <c r="C23" s="81" t="s">
         <v>480</v>
       </c>
-      <c r="D23" s="306"/>
+      <c r="D23" s="371"/>
       <c r="E23" s="82" t="s">
         <v>19</v>
       </c>
@@ -13658,12 +13587,12 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="304"/>
-      <c r="B24" s="303"/>
+      <c r="A24" s="369"/>
+      <c r="B24" s="368"/>
       <c r="C24" s="81" t="s">
         <v>481</v>
       </c>
-      <c r="D24" s="306"/>
+      <c r="D24" s="371"/>
       <c r="E24" s="82" t="s">
         <v>19</v>
       </c>
@@ -13678,12 +13607,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="304"/>
-      <c r="B25" s="303"/>
+      <c r="A25" s="369"/>
+      <c r="B25" s="368"/>
       <c r="C25" s="81" t="s">
         <v>482</v>
       </c>
-      <c r="D25" s="306"/>
+      <c r="D25" s="371"/>
       <c r="E25" s="82" t="s">
         <v>19</v>
       </c>
@@ -13698,12 +13627,12 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="304"/>
-      <c r="B26" s="303"/>
+      <c r="A26" s="369"/>
+      <c r="B26" s="368"/>
       <c r="C26" s="81" t="s">
         <v>483</v>
       </c>
-      <c r="D26" s="306"/>
+      <c r="D26" s="371"/>
       <c r="E26" s="82" t="s">
         <v>19</v>
       </c>
@@ -13716,12 +13645,12 @@
       <c r="H26" s="82"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="304"/>
-      <c r="B27" s="303"/>
+      <c r="A27" s="369"/>
+      <c r="B27" s="368"/>
       <c r="C27" s="81" t="s">
         <v>484</v>
       </c>
-      <c r="D27" s="306"/>
+      <c r="D27" s="371"/>
       <c r="E27" s="82" t="s">
         <v>19</v>
       </c>
@@ -13736,12 +13665,12 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="304"/>
-      <c r="B28" s="303"/>
+      <c r="A28" s="369"/>
+      <c r="B28" s="368"/>
       <c r="C28" s="81" t="s">
         <v>485</v>
       </c>
-      <c r="D28" s="306"/>
+      <c r="D28" s="371"/>
       <c r="E28" s="82" t="s">
         <v>19</v>
       </c>
@@ -13756,12 +13685,12 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="304"/>
-      <c r="B29" s="303"/>
+      <c r="A29" s="369"/>
+      <c r="B29" s="368"/>
       <c r="C29" s="81" t="s">
         <v>486</v>
       </c>
-      <c r="D29" s="307"/>
+      <c r="D29" s="372"/>
       <c r="E29" s="82" t="s">
         <v>19</v>
       </c>
@@ -13847,16 +13776,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="288" t="s">
+      <c r="B2" s="354" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="287" t="s">
+      <c r="D2" s="352" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -13876,12 +13805,12 @@
       <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="288"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="354"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="287"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="39" t="s">
         <v>19</v>
       </c>
@@ -13897,12 +13826,12 @@
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="288"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="354"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="287"/>
+      <c r="D4" s="352"/>
       <c r="E4" s="39" t="s">
         <v>19</v>
       </c>
@@ -13918,12 +13847,12 @@
       <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="288"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="354"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="287"/>
+      <c r="D5" s="352"/>
       <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
@@ -13939,12 +13868,12 @@
       <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="288"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="354"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="287"/>
+      <c r="D6" s="352"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -13964,12 +13893,12 @@
       <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="288"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="354"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="287"/>
+      <c r="D7" s="352"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -13989,12 +13918,12 @@
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="288"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="354"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="287"/>
+      <c r="D8" s="352"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -14014,12 +13943,12 @@
       <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="288"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="354"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="287"/>
+      <c r="D9" s="352"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -14035,16 +13964,16 @@
       <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="170">
+      <c r="A10" s="337">
         <v>2</v>
       </c>
-      <c r="B10" s="287" t="s">
+      <c r="B10" s="352" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="287" t="s">
+      <c r="D10" s="352" t="s">
         <v>162</v>
       </c>
       <c r="E10" s="39" t="s">
@@ -14065,12 +13994,12 @@
       <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="287"/>
+      <c r="A11" s="337"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="287"/>
+      <c r="D11" s="352"/>
       <c r="E11" s="39" t="s">
         <v>19</v>
       </c>
@@ -14087,12 +14016,12 @@
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
-      <c r="B12" s="287"/>
+      <c r="A12" s="337"/>
+      <c r="B12" s="352"/>
       <c r="C12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="287"/>
+      <c r="D12" s="352"/>
       <c r="E12" s="39" t="s">
         <v>19</v>
       </c>
@@ -14109,12 +14038,12 @@
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
-      <c r="B13" s="287"/>
+      <c r="A13" s="337"/>
+      <c r="B13" s="352"/>
       <c r="C13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="287"/>
+      <c r="D13" s="352"/>
       <c r="E13" s="39" t="s">
         <v>19</v>
       </c>
@@ -14131,12 +14060,12 @@
       <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
-      <c r="B14" s="287"/>
+      <c r="A14" s="337"/>
+      <c r="B14" s="352"/>
       <c r="C14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="287"/>
+      <c r="D14" s="352"/>
       <c r="E14" s="39" t="s">
         <v>19</v>
       </c>
@@ -14155,12 +14084,12 @@
       <c r="L14" s="39"/>
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
-      <c r="B15" s="287"/>
+      <c r="A15" s="337"/>
+      <c r="B15" s="352"/>
       <c r="C15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="287"/>
+      <c r="D15" s="352"/>
       <c r="E15" s="39" t="s">
         <v>19</v>
       </c>
@@ -14179,12 +14108,12 @@
       <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="170"/>
-      <c r="B16" s="287"/>
+      <c r="A16" s="337"/>
+      <c r="B16" s="352"/>
       <c r="C16" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="287"/>
+      <c r="D16" s="352"/>
       <c r="E16" s="39" t="s">
         <v>80</v>
       </c>
@@ -14203,12 +14132,12 @@
       <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="170"/>
-      <c r="B17" s="287"/>
+      <c r="A17" s="337"/>
+      <c r="B17" s="352"/>
       <c r="C17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="287"/>
+      <c r="D17" s="352"/>
       <c r="E17" s="39" t="s">
         <v>19</v>
       </c>
@@ -14227,12 +14156,12 @@
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="170"/>
-      <c r="B18" s="287"/>
+      <c r="A18" s="337"/>
+      <c r="B18" s="352"/>
       <c r="C18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="287"/>
+      <c r="D18" s="352"/>
       <c r="E18" s="39" t="s">
         <v>19</v>
       </c>
@@ -14251,12 +14180,12 @@
       <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="170"/>
-      <c r="B19" s="287"/>
+      <c r="A19" s="337"/>
+      <c r="B19" s="352"/>
       <c r="C19" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="287"/>
+      <c r="D19" s="352"/>
       <c r="E19" s="39" t="s">
         <v>19</v>
       </c>
@@ -14273,12 +14202,12 @@
       <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="170"/>
-      <c r="B20" s="287"/>
+      <c r="A20" s="337"/>
+      <c r="B20" s="352"/>
       <c r="C20" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="287"/>
+      <c r="D20" s="352"/>
       <c r="E20" s="41" t="s">
         <v>19</v>
       </c>
@@ -14297,12 +14226,12 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="170"/>
-      <c r="B21" s="287"/>
+      <c r="A21" s="337"/>
+      <c r="B21" s="352"/>
       <c r="C21" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="287"/>
+      <c r="D21" s="352"/>
       <c r="E21" s="41" t="s">
         <v>19</v>
       </c>
@@ -14321,12 +14250,12 @@
       <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="170"/>
-      <c r="B22" s="287"/>
+      <c r="A22" s="337"/>
+      <c r="B22" s="352"/>
       <c r="C22" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="287"/>
+      <c r="D22" s="352"/>
       <c r="E22" s="41" t="s">
         <v>19</v>
       </c>
@@ -14345,12 +14274,12 @@
       <c r="L22" s="39"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="170"/>
-      <c r="B23" s="287"/>
+      <c r="A23" s="337"/>
+      <c r="B23" s="352"/>
       <c r="C23" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="287"/>
+      <c r="D23" s="352"/>
       <c r="E23" s="41" t="s">
         <v>19</v>
       </c>
@@ -14369,16 +14298,16 @@
       <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="170">
+      <c r="A24" s="337">
         <v>3</v>
       </c>
-      <c r="B24" s="287" t="s">
+      <c r="B24" s="352" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="289" t="s">
+      <c r="D24" s="353" t="s">
         <v>163</v>
       </c>
       <c r="E24" s="39" t="s">
@@ -14398,12 +14327,12 @@
       <c r="K24" s="39"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="170"/>
-      <c r="B25" s="287"/>
+      <c r="A25" s="337"/>
+      <c r="B25" s="352"/>
       <c r="C25" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="289"/>
+      <c r="D25" s="353"/>
       <c r="E25" s="39" t="s">
         <v>80</v>
       </c>
@@ -14421,12 +14350,12 @@
       <c r="K25" s="39"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="170"/>
-      <c r="B26" s="287"/>
+      <c r="A26" s="337"/>
+      <c r="B26" s="352"/>
       <c r="C26" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="289"/>
+      <c r="D26" s="353"/>
       <c r="E26" s="39" t="s">
         <v>19</v>
       </c>
@@ -14444,12 +14373,12 @@
       <c r="K26" s="39"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="170"/>
-      <c r="B27" s="287"/>
+      <c r="A27" s="337"/>
+      <c r="B27" s="352"/>
       <c r="C27" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="289"/>
+      <c r="D27" s="353"/>
       <c r="E27" s="39" t="s">
         <v>19</v>
       </c>
@@ -14467,12 +14396,12 @@
       <c r="K27" s="39"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="170"/>
-      <c r="B28" s="287"/>
+      <c r="A28" s="337"/>
+      <c r="B28" s="352"/>
       <c r="C28" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="289"/>
+      <c r="D28" s="353"/>
       <c r="E28" s="39" t="s">
         <v>19</v>
       </c>
@@ -14490,12 +14419,12 @@
       <c r="K28" s="39"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="170"/>
-      <c r="B29" s="287"/>
+      <c r="A29" s="337"/>
+      <c r="B29" s="352"/>
       <c r="C29" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="289"/>
+      <c r="D29" s="353"/>
       <c r="E29" s="39" t="s">
         <v>80</v>
       </c>
@@ -14513,12 +14442,12 @@
       <c r="K29" s="39"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="170"/>
-      <c r="B30" s="287"/>
+      <c r="A30" s="337"/>
+      <c r="B30" s="352"/>
       <c r="C30" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="289"/>
+      <c r="D30" s="353"/>
       <c r="E30" s="39" t="s">
         <v>19</v>
       </c>
@@ -14536,16 +14465,16 @@
       <c r="K30" s="39"/>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="170">
+      <c r="A31" s="337">
         <v>4</v>
       </c>
-      <c r="B31" s="287" t="s">
+      <c r="B31" s="352" t="s">
         <v>315</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="289" t="s">
+      <c r="D31" s="353" t="s">
         <v>278</v>
       </c>
       <c r="E31" s="39" t="s">
@@ -14563,12 +14492,12 @@
       <c r="K31" s="39"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="170"/>
-      <c r="B32" s="287"/>
+      <c r="A32" s="337"/>
+      <c r="B32" s="352"/>
       <c r="C32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="289"/>
+      <c r="D32" s="353"/>
       <c r="E32" s="39" t="s">
         <v>19</v>
       </c>
@@ -14584,12 +14513,12 @@
       <c r="K32" s="39"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="170"/>
-      <c r="B33" s="287"/>
+      <c r="A33" s="337"/>
+      <c r="B33" s="352"/>
       <c r="C33" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="289"/>
+      <c r="D33" s="353"/>
       <c r="E33" s="39" t="s">
         <v>19</v>
       </c>
@@ -14605,12 +14534,12 @@
       <c r="K33" s="39"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="170"/>
-      <c r="B34" s="287"/>
+      <c r="A34" s="337"/>
+      <c r="B34" s="352"/>
       <c r="C34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="289"/>
+      <c r="D34" s="353"/>
       <c r="E34" s="41" t="s">
         <v>19</v>
       </c>
@@ -14628,12 +14557,12 @@
       <c r="K34" s="39"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="170"/>
-      <c r="B35" s="287"/>
+      <c r="A35" s="337"/>
+      <c r="B35" s="352"/>
       <c r="C35" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="289"/>
+      <c r="D35" s="353"/>
       <c r="E35" s="39" t="s">
         <v>19</v>
       </c>
@@ -14653,12 +14582,12 @@
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="170"/>
-      <c r="B36" s="287"/>
+      <c r="A36" s="337"/>
+      <c r="B36" s="352"/>
       <c r="C36" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="289"/>
+      <c r="D36" s="353"/>
       <c r="E36" s="39" t="s">
         <v>80</v>
       </c>
@@ -14677,12 +14606,12 @@
       <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="170"/>
-      <c r="B37" s="287"/>
+      <c r="A37" s="337"/>
+      <c r="B37" s="352"/>
       <c r="C37" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="289"/>
+      <c r="D37" s="353"/>
       <c r="E37" s="39" t="s">
         <v>19</v>
       </c>
@@ -14701,12 +14630,12 @@
       <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="170"/>
-      <c r="B38" s="287"/>
+      <c r="A38" s="337"/>
+      <c r="B38" s="352"/>
       <c r="C38" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="289"/>
+      <c r="D38" s="353"/>
       <c r="E38" s="39" t="s">
         <v>19</v>
       </c>
@@ -14725,12 +14654,12 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="170"/>
-      <c r="B39" s="287"/>
+      <c r="A39" s="337"/>
+      <c r="B39" s="352"/>
       <c r="C39" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="289"/>
+      <c r="D39" s="353"/>
       <c r="E39" s="39" t="s">
         <v>19</v>
       </c>
@@ -14746,12 +14675,12 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="170"/>
-      <c r="B40" s="287"/>
+      <c r="A40" s="337"/>
+      <c r="B40" s="352"/>
       <c r="C40" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="289"/>
+      <c r="D40" s="353"/>
       <c r="E40" s="40" t="s">
         <v>19</v>
       </c>
@@ -14767,12 +14696,12 @@
       <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="170"/>
-      <c r="B41" s="287"/>
+      <c r="A41" s="337"/>
+      <c r="B41" s="352"/>
       <c r="C41" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="289"/>
+      <c r="D41" s="353"/>
       <c r="E41" s="40" t="s">
         <v>19</v>
       </c>
@@ -14792,12 +14721,12 @@
       <c r="K41" s="39"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="170"/>
-      <c r="B42" s="287"/>
+      <c r="A42" s="337"/>
+      <c r="B42" s="352"/>
       <c r="C42" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="289"/>
+      <c r="D42" s="353"/>
       <c r="E42" s="40" t="s">
         <v>19</v>
       </c>
@@ -14817,12 +14746,12 @@
       <c r="K42" s="39"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="170"/>
-      <c r="B43" s="287"/>
+      <c r="A43" s="337"/>
+      <c r="B43" s="352"/>
       <c r="C43" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="289"/>
+      <c r="D43" s="353"/>
       <c r="E43" s="40" t="s">
         <v>19</v>
       </c>
@@ -14842,12 +14771,12 @@
       <c r="K43" s="39"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="170"/>
-      <c r="B44" s="287"/>
+      <c r="A44" s="337"/>
+      <c r="B44" s="352"/>
       <c r="C44" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="289"/>
+      <c r="D44" s="353"/>
       <c r="E44" s="40" t="s">
         <v>19</v>
       </c>
@@ -14867,12 +14796,12 @@
       <c r="K44" s="39"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="170"/>
-      <c r="B45" s="287"/>
+      <c r="A45" s="337"/>
+      <c r="B45" s="352"/>
       <c r="C45" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="289"/>
+      <c r="D45" s="353"/>
       <c r="E45" s="40" t="s">
         <v>80</v>
       </c>
@@ -14890,12 +14819,12 @@
       <c r="K45" s="39"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="170"/>
-      <c r="B46" s="287"/>
+      <c r="A46" s="337"/>
+      <c r="B46" s="352"/>
       <c r="C46" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="289"/>
+      <c r="D46" s="353"/>
       <c r="E46" s="40" t="s">
         <v>19</v>
       </c>
@@ -14911,12 +14840,12 @@
       <c r="K46" s="39"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="170"/>
-      <c r="B47" s="287"/>
+      <c r="A47" s="337"/>
+      <c r="B47" s="352"/>
       <c r="C47" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="289"/>
+      <c r="D47" s="353"/>
       <c r="E47" s="40" t="s">
         <v>19</v>
       </c>
@@ -14932,16 +14861,16 @@
       <c r="K47" s="39"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="170">
+      <c r="A48" s="337">
         <v>5</v>
       </c>
-      <c r="B48" s="287" t="s">
+      <c r="B48" s="352" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="289" t="s">
+      <c r="D48" s="353" t="s">
         <v>280</v>
       </c>
       <c r="E48" s="39" t="s">
@@ -14959,12 +14888,12 @@
       <c r="K48" s="39"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="170"/>
-      <c r="B49" s="287"/>
+      <c r="A49" s="337"/>
+      <c r="B49" s="352"/>
       <c r="C49" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="289"/>
+      <c r="D49" s="353"/>
       <c r="E49" s="39" t="s">
         <v>19</v>
       </c>
@@ -14980,12 +14909,12 @@
       <c r="K49" s="39"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="170"/>
-      <c r="B50" s="287"/>
+      <c r="A50" s="337"/>
+      <c r="B50" s="352"/>
       <c r="C50" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="289"/>
+      <c r="D50" s="353"/>
       <c r="E50" s="39" t="s">
         <v>19</v>
       </c>
@@ -15001,12 +14930,12 @@
       <c r="K50" s="39"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="170"/>
-      <c r="B51" s="287"/>
+      <c r="A51" s="337"/>
+      <c r="B51" s="352"/>
       <c r="C51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="289"/>
+      <c r="D51" s="353"/>
       <c r="E51" s="41" t="s">
         <v>19</v>
       </c>
@@ -15024,12 +14953,12 @@
       <c r="K51" s="39"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="170"/>
-      <c r="B52" s="287"/>
+      <c r="A52" s="337"/>
+      <c r="B52" s="352"/>
       <c r="C52" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="289"/>
+      <c r="D52" s="353"/>
       <c r="E52" s="39" t="s">
         <v>19</v>
       </c>
@@ -15049,12 +14978,12 @@
       <c r="K52" s="39"/>
     </row>
     <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="170"/>
-      <c r="B53" s="287"/>
+      <c r="A53" s="337"/>
+      <c r="B53" s="352"/>
       <c r="C53" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="289"/>
+      <c r="D53" s="353"/>
       <c r="E53" s="39" t="s">
         <v>80</v>
       </c>
@@ -15073,12 +15002,12 @@
       <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="170"/>
-      <c r="B54" s="287"/>
+      <c r="A54" s="337"/>
+      <c r="B54" s="352"/>
       <c r="C54" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="289"/>
+      <c r="D54" s="353"/>
       <c r="E54" s="39" t="s">
         <v>19</v>
       </c>
@@ -15097,12 +15026,12 @@
       <c r="L54" s="13"/>
     </row>
     <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="170"/>
-      <c r="B55" s="287"/>
+      <c r="A55" s="337"/>
+      <c r="B55" s="352"/>
       <c r="C55" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="289"/>
+      <c r="D55" s="353"/>
       <c r="E55" s="39" t="s">
         <v>19</v>
       </c>
@@ -15121,12 +15050,12 @@
       <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="170"/>
-      <c r="B56" s="287"/>
+      <c r="A56" s="337"/>
+      <c r="B56" s="352"/>
       <c r="C56" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="289"/>
+      <c r="D56" s="353"/>
       <c r="E56" s="39" t="s">
         <v>19</v>
       </c>
@@ -15142,12 +15071,12 @@
       <c r="K56" s="39"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="170"/>
-      <c r="B57" s="287"/>
+      <c r="A57" s="337"/>
+      <c r="B57" s="352"/>
       <c r="C57" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="289"/>
+      <c r="D57" s="353"/>
       <c r="E57" s="40" t="s">
         <v>19</v>
       </c>
@@ -15163,12 +15092,12 @@
       <c r="K57" s="39"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="170"/>
-      <c r="B58" s="287"/>
+      <c r="A58" s="337"/>
+      <c r="B58" s="352"/>
       <c r="C58" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="289"/>
+      <c r="D58" s="353"/>
       <c r="E58" s="40" t="s">
         <v>19</v>
       </c>
@@ -15188,12 +15117,12 @@
       <c r="K58" s="39"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="170"/>
-      <c r="B59" s="287"/>
+      <c r="A59" s="337"/>
+      <c r="B59" s="352"/>
       <c r="C59" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="289"/>
+      <c r="D59" s="353"/>
       <c r="E59" s="40" t="s">
         <v>19</v>
       </c>
@@ -15213,12 +15142,12 @@
       <c r="K59" s="39"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="170"/>
-      <c r="B60" s="287"/>
+      <c r="A60" s="337"/>
+      <c r="B60" s="352"/>
       <c r="C60" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="289"/>
+      <c r="D60" s="353"/>
       <c r="E60" s="40" t="s">
         <v>19</v>
       </c>
@@ -15238,12 +15167,12 @@
       <c r="K60" s="39"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="170"/>
-      <c r="B61" s="287"/>
+      <c r="A61" s="337"/>
+      <c r="B61" s="352"/>
       <c r="C61" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="289"/>
+      <c r="D61" s="353"/>
       <c r="E61" s="40" t="s">
         <v>19</v>
       </c>
@@ -15261,12 +15190,12 @@
       <c r="K61" s="39"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="170"/>
-      <c r="B62" s="287"/>
+      <c r="A62" s="337"/>
+      <c r="B62" s="352"/>
       <c r="C62" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="289"/>
+      <c r="D62" s="353"/>
       <c r="E62" s="40" t="s">
         <v>80</v>
       </c>
@@ -15284,12 +15213,12 @@
       <c r="K62" s="39"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="170"/>
-      <c r="B63" s="287"/>
+      <c r="A63" s="337"/>
+      <c r="B63" s="352"/>
       <c r="C63" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="289"/>
+      <c r="D63" s="353"/>
       <c r="E63" s="40" t="s">
         <v>19</v>
       </c>
@@ -15305,12 +15234,12 @@
       <c r="K63" s="39"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="170"/>
-      <c r="B64" s="287"/>
+      <c r="A64" s="337"/>
+      <c r="B64" s="352"/>
       <c r="C64" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="289"/>
+      <c r="D64" s="353"/>
       <c r="E64" s="40" t="s">
         <v>19</v>
       </c>
@@ -15328,16 +15257,16 @@
       <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="170">
+      <c r="A65" s="337">
         <v>6</v>
       </c>
-      <c r="B65" s="287" t="s">
+      <c r="B65" s="352" t="s">
         <v>143</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="289" t="s">
+      <c r="D65" s="353" t="s">
         <v>164</v>
       </c>
       <c r="E65" s="39" t="s">
@@ -15355,12 +15284,12 @@
       <c r="K65" s="39"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="170"/>
-      <c r="B66" s="287"/>
+      <c r="A66" s="337"/>
+      <c r="B66" s="352"/>
       <c r="C66" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="289"/>
+      <c r="D66" s="353"/>
       <c r="E66" s="39" t="s">
         <v>19</v>
       </c>
@@ -15376,12 +15305,12 @@
       <c r="K66" s="39"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="170"/>
-      <c r="B67" s="287"/>
+      <c r="A67" s="337"/>
+      <c r="B67" s="352"/>
       <c r="C67" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="289"/>
+      <c r="D67" s="353"/>
       <c r="E67" s="39" t="s">
         <v>19</v>
       </c>
@@ -15397,16 +15326,16 @@
       <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="170">
+      <c r="A68" s="337">
         <v>7</v>
       </c>
-      <c r="B68" s="287" t="s">
+      <c r="B68" s="352" t="s">
         <v>145</v>
       </c>
       <c r="C68" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="289" t="s">
+      <c r="D68" s="353" t="s">
         <v>165</v>
       </c>
       <c r="E68" s="39" t="s">
@@ -15424,12 +15353,12 @@
       <c r="K68" s="39"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="170"/>
-      <c r="B69" s="287"/>
+      <c r="A69" s="337"/>
+      <c r="B69" s="352"/>
       <c r="C69" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="289"/>
+      <c r="D69" s="353"/>
       <c r="E69" s="39" t="s">
         <v>19</v>
       </c>
@@ -15445,12 +15374,12 @@
       <c r="K69" s="39"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="170"/>
-      <c r="B70" s="287"/>
+      <c r="A70" s="337"/>
+      <c r="B70" s="352"/>
       <c r="C70" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="289"/>
+      <c r="D70" s="353"/>
       <c r="E70" s="39" t="s">
         <v>19</v>
       </c>
@@ -15466,16 +15395,16 @@
       <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="170">
+      <c r="A71" s="337">
         <v>8</v>
       </c>
-      <c r="B71" s="287" t="s">
+      <c r="B71" s="352" t="s">
         <v>144</v>
       </c>
       <c r="C71" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="289" t="s">
+      <c r="D71" s="353" t="s">
         <v>166</v>
       </c>
       <c r="E71" s="39" t="s">
@@ -15493,12 +15422,12 @@
       <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="170"/>
-      <c r="B72" s="287"/>
+      <c r="A72" s="337"/>
+      <c r="B72" s="352"/>
       <c r="C72" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="289"/>
+      <c r="D72" s="353"/>
       <c r="E72" s="39" t="s">
         <v>19</v>
       </c>
@@ -15514,12 +15443,12 @@
       <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="170"/>
-      <c r="B73" s="287"/>
+      <c r="A73" s="337"/>
+      <c r="B73" s="352"/>
       <c r="C73" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="289"/>
+      <c r="D73" s="353"/>
       <c r="E73" s="39" t="s">
         <v>19</v>
       </c>
@@ -15535,16 +15464,16 @@
       <c r="K73" s="39"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="170">
+      <c r="A74" s="337">
         <v>9</v>
       </c>
-      <c r="B74" s="287" t="s">
+      <c r="B74" s="352" t="s">
         <v>150</v>
       </c>
       <c r="C74" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="289" t="s">
+      <c r="D74" s="353" t="s">
         <v>167</v>
       </c>
       <c r="E74" s="39" t="s">
@@ -15562,12 +15491,12 @@
       <c r="K74" s="39"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="170"/>
-      <c r="B75" s="287"/>
+      <c r="A75" s="337"/>
+      <c r="B75" s="352"/>
       <c r="C75" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="289"/>
+      <c r="D75" s="353"/>
       <c r="E75" s="39" t="s">
         <v>19</v>
       </c>
@@ -15583,12 +15512,12 @@
       <c r="K75" s="39"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="170"/>
-      <c r="B76" s="287"/>
+      <c r="A76" s="337"/>
+      <c r="B76" s="352"/>
       <c r="C76" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="289"/>
+      <c r="D76" s="353"/>
       <c r="E76" s="39" t="s">
         <v>19</v>
       </c>
@@ -15604,12 +15533,12 @@
       <c r="K76" s="39"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="170"/>
-      <c r="B77" s="287"/>
+      <c r="A77" s="337"/>
+      <c r="B77" s="352"/>
       <c r="C77" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="289"/>
+      <c r="D77" s="353"/>
       <c r="E77" s="39" t="s">
         <v>19</v>
       </c>
@@ -15629,12 +15558,12 @@
       <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="170"/>
-      <c r="B78" s="287"/>
+      <c r="A78" s="337"/>
+      <c r="B78" s="352"/>
       <c r="C78" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="289"/>
+      <c r="D78" s="353"/>
       <c r="E78" s="41" t="s">
         <v>19</v>
       </c>
@@ -15652,16 +15581,16 @@
       <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="170">
+      <c r="A79" s="337">
         <v>10</v>
       </c>
-      <c r="B79" s="287" t="s">
+      <c r="B79" s="352" t="s">
         <v>155</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="289" t="s">
+      <c r="D79" s="353" t="s">
         <v>168</v>
       </c>
       <c r="E79" s="39" t="s">
@@ -15679,12 +15608,12 @@
       <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="170"/>
-      <c r="B80" s="287"/>
+      <c r="A80" s="337"/>
+      <c r="B80" s="352"/>
       <c r="C80" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="289"/>
+      <c r="D80" s="353"/>
       <c r="E80" s="39" t="s">
         <v>19</v>
       </c>
@@ -15700,12 +15629,12 @@
       <c r="K80" s="39"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="170"/>
-      <c r="B81" s="287"/>
+      <c r="A81" s="337"/>
+      <c r="B81" s="352"/>
       <c r="C81" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="289"/>
+      <c r="D81" s="353"/>
       <c r="E81" s="39" t="s">
         <v>19</v>
       </c>
@@ -15721,12 +15650,12 @@
       <c r="K81" s="39"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="170"/>
-      <c r="B82" s="287"/>
+      <c r="A82" s="337"/>
+      <c r="B82" s="352"/>
       <c r="C82" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="289"/>
+      <c r="D82" s="353"/>
       <c r="E82" s="41" t="s">
         <v>19</v>
       </c>
@@ -15746,16 +15675,16 @@
       <c r="K82" s="39"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="170">
+      <c r="A83" s="337">
         <v>11</v>
       </c>
-      <c r="B83" s="287" t="s">
+      <c r="B83" s="352" t="s">
         <v>157</v>
       </c>
       <c r="C83" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="289" t="s">
+      <c r="D83" s="353" t="s">
         <v>169</v>
       </c>
       <c r="E83" s="41" t="s">
@@ -15773,12 +15702,12 @@
       <c r="K83" s="39"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="170"/>
-      <c r="B84" s="287"/>
+      <c r="A84" s="337"/>
+      <c r="B84" s="352"/>
       <c r="C84" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="289"/>
+      <c r="D84" s="353"/>
       <c r="E84" s="41" t="s">
         <v>19</v>
       </c>
@@ -15794,12 +15723,12 @@
       <c r="K84" s="39"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="170"/>
-      <c r="B85" s="287"/>
+      <c r="A85" s="337"/>
+      <c r="B85" s="352"/>
       <c r="C85" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="289"/>
+      <c r="D85" s="353"/>
       <c r="E85" s="41" t="s">
         <v>19</v>
       </c>
@@ -15815,12 +15744,12 @@
       <c r="K85" s="39"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="170"/>
-      <c r="B86" s="287"/>
+      <c r="A86" s="337"/>
+      <c r="B86" s="352"/>
       <c r="C86" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="289"/>
+      <c r="D86" s="353"/>
       <c r="E86" s="41" t="s">
         <v>19</v>
       </c>
@@ -15840,12 +15769,12 @@
       <c r="K86" s="39"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="170"/>
-      <c r="B87" s="287"/>
+      <c r="A87" s="337"/>
+      <c r="B87" s="352"/>
       <c r="C87" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="289"/>
+      <c r="D87" s="353"/>
       <c r="E87" s="41" t="s">
         <v>19</v>
       </c>
@@ -15865,12 +15794,12 @@
       <c r="K87" s="41"/>
     </row>
     <row r="88" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="170"/>
-      <c r="B88" s="287"/>
+      <c r="A88" s="337"/>
+      <c r="B88" s="352"/>
       <c r="C88" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="289"/>
+      <c r="D88" s="353"/>
       <c r="E88" s="41" t="s">
         <v>80</v>
       </c>
@@ -15889,12 +15818,12 @@
       <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="170"/>
-      <c r="B89" s="287"/>
+      <c r="A89" s="337"/>
+      <c r="B89" s="352"/>
       <c r="C89" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="289"/>
+      <c r="D89" s="353"/>
       <c r="E89" s="41" t="s">
         <v>19</v>
       </c>
@@ -15913,12 +15842,12 @@
       <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="170"/>
-      <c r="B90" s="287"/>
+      <c r="A90" s="337"/>
+      <c r="B90" s="352"/>
       <c r="C90" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="289"/>
+      <c r="D90" s="353"/>
       <c r="E90" s="41" t="s">
         <v>19</v>
       </c>
@@ -15937,12 +15866,12 @@
       <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="170"/>
-      <c r="B91" s="287"/>
+      <c r="A91" s="337"/>
+      <c r="B91" s="352"/>
       <c r="C91" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D91" s="289"/>
+      <c r="D91" s="353"/>
       <c r="E91" s="41" t="s">
         <v>19</v>
       </c>
@@ -15962,12 +15891,12 @@
       <c r="K91" s="41"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="170"/>
-      <c r="B92" s="287"/>
+      <c r="A92" s="337"/>
+      <c r="B92" s="352"/>
       <c r="C92" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="289"/>
+      <c r="D92" s="353"/>
       <c r="E92" s="40" t="s">
         <v>19</v>
       </c>
@@ -15983,16 +15912,16 @@
       <c r="K92" s="39"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="170">
+      <c r="A93" s="337">
         <v>12</v>
       </c>
-      <c r="B93" s="287" t="s">
+      <c r="B93" s="352" t="s">
         <v>170</v>
       </c>
       <c r="C93" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D93" s="287" t="s">
+      <c r="D93" s="352" t="s">
         <v>178</v>
       </c>
       <c r="E93" s="41" t="s">
@@ -16010,12 +15939,12 @@
       <c r="K93" s="39"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="170"/>
-      <c r="B94" s="287"/>
+      <c r="A94" s="337"/>
+      <c r="B94" s="352"/>
       <c r="C94" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="287"/>
+      <c r="D94" s="352"/>
       <c r="E94" s="41" t="s">
         <v>19</v>
       </c>
@@ -16031,12 +15960,12 @@
       <c r="K94" s="39"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="170"/>
-      <c r="B95" s="287"/>
+      <c r="A95" s="337"/>
+      <c r="B95" s="352"/>
       <c r="C95" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="287"/>
+      <c r="D95" s="352"/>
       <c r="E95" s="41" t="s">
         <v>19</v>
       </c>
@@ -16052,12 +15981,12 @@
       <c r="K95" s="39"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="170"/>
-      <c r="B96" s="287"/>
+      <c r="A96" s="337"/>
+      <c r="B96" s="352"/>
       <c r="C96" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="287"/>
+      <c r="D96" s="352"/>
       <c r="E96" s="41" t="s">
         <v>19</v>
       </c>
@@ -16077,12 +16006,12 @@
       <c r="K96" s="39"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="170"/>
-      <c r="B97" s="287"/>
+      <c r="A97" s="337"/>
+      <c r="B97" s="352"/>
       <c r="C97" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="287"/>
+      <c r="D97" s="352"/>
       <c r="E97" s="41" t="s">
         <v>19</v>
       </c>
@@ -16102,12 +16031,12 @@
       <c r="K97" s="41"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="170"/>
-      <c r="B98" s="287"/>
+      <c r="A98" s="337"/>
+      <c r="B98" s="352"/>
       <c r="C98" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="D98" s="287"/>
+      <c r="D98" s="352"/>
       <c r="E98" s="41" t="s">
         <v>19</v>
       </c>
@@ -16123,12 +16052,12 @@
       <c r="K98" s="39"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="170"/>
-      <c r="B99" s="287"/>
+      <c r="A99" s="337"/>
+      <c r="B99" s="352"/>
       <c r="C99" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D99" s="287"/>
+      <c r="D99" s="352"/>
       <c r="E99" s="41" t="s">
         <v>19</v>
       </c>
@@ -16146,12 +16075,12 @@
       <c r="K99" s="39"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="170"/>
-      <c r="B100" s="287"/>
+      <c r="A100" s="337"/>
+      <c r="B100" s="352"/>
       <c r="C100" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D100" s="287"/>
+      <c r="D100" s="352"/>
       <c r="E100" s="41" t="s">
         <v>19</v>
       </c>
@@ -16176,34 +16105,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B93:B100"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="D83:D92"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D31:D47"/>
-    <mergeCell ref="D48:D64"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D23"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A48:A64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B48:B64"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A31:A47"/>
     <mergeCell ref="B24:B30"/>
@@ -16212,6 +16113,34 @@
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="B10:B23"/>
+    <mergeCell ref="A48:A64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B48:B64"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="D31:D47"/>
+    <mergeCell ref="D48:D64"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D23"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="D83:D92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16518,16 +16447,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="288" t="s">
+      <c r="B2" s="354" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="290" t="s">
+      <c r="D2" s="355" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -16544,12 +16473,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="288"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="354"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="291"/>
+      <c r="D3" s="356"/>
       <c r="E3" s="39" t="s">
         <v>19</v>
       </c>
@@ -16562,12 +16491,12 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="288"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="354"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="356"/>
       <c r="E4" s="39" t="s">
         <v>19</v>
       </c>
@@ -16582,12 +16511,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="288"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="354"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="291"/>
+      <c r="D5" s="356"/>
       <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
@@ -16602,12 +16531,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="288"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="354"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="291"/>
+      <c r="D6" s="356"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -16622,12 +16551,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="288"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="354"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="291"/>
+      <c r="D7" s="356"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -16642,12 +16571,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="288"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="354"/>
       <c r="C8" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="291"/>
+      <c r="D8" s="356"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -16662,12 +16591,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="288"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="354"/>
       <c r="C9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="292"/>
+      <c r="D9" s="357"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -16741,16 +16670,16 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="352" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="290" t="s">
+      <c r="D2" s="355" t="s">
         <v>162</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -16768,12 +16697,12 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="287"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="352"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="291"/>
+      <c r="D3" s="356"/>
       <c r="E3" s="39" t="s">
         <v>19</v>
       </c>
@@ -16787,12 +16716,12 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="287"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="356"/>
       <c r="E4" s="39" t="s">
         <v>19</v>
       </c>
@@ -16808,12 +16737,12 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="287"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="352"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="291"/>
+      <c r="D5" s="356"/>
       <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
@@ -16829,12 +16758,12 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="287"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="352"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="291"/>
+      <c r="D6" s="356"/>
       <c r="E6" s="39" t="s">
         <v>19</v>
       </c>
@@ -16850,12 +16779,12 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="287"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="352"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="291"/>
+      <c r="D7" s="356"/>
       <c r="E7" s="39" t="s">
         <v>19</v>
       </c>
@@ -16871,12 +16800,12 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="287"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="352"/>
       <c r="C8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="291"/>
+      <c r="D8" s="356"/>
       <c r="E8" s="39" t="s">
         <v>80</v>
       </c>
@@ -16892,12 +16821,12 @@
       <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="287"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="352"/>
       <c r="C9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="291"/>
+      <c r="D9" s="356"/>
       <c r="E9" s="39" t="s">
         <v>19</v>
       </c>
@@ -16913,12 +16842,12 @@
       <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="287"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="291"/>
+      <c r="D10" s="356"/>
       <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
@@ -16934,12 +16863,12 @@
       <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="287"/>
+      <c r="A11" s="337"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="291"/>
+      <c r="D11" s="356"/>
       <c r="E11" s="39" t="s">
         <v>19</v>
       </c>
@@ -16953,12 +16882,12 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
-      <c r="B12" s="287"/>
+      <c r="A12" s="337"/>
+      <c r="B12" s="352"/>
       <c r="C12" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="291"/>
+      <c r="D12" s="356"/>
       <c r="E12" s="41" t="s">
         <v>19</v>
       </c>
@@ -16974,12 +16903,12 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
-      <c r="B13" s="287"/>
+      <c r="A13" s="337"/>
+      <c r="B13" s="352"/>
       <c r="C13" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="291"/>
+      <c r="D13" s="356"/>
       <c r="E13" s="41" t="s">
         <v>19</v>
       </c>
@@ -16995,12 +16924,12 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
-      <c r="B14" s="287"/>
+      <c r="A14" s="337"/>
+      <c r="B14" s="352"/>
       <c r="C14" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="291"/>
+      <c r="D14" s="356"/>
       <c r="E14" s="41" t="s">
         <v>19</v>
       </c>
@@ -17016,12 +16945,12 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="170"/>
-      <c r="B15" s="287"/>
+      <c r="A15" s="337"/>
+      <c r="B15" s="352"/>
       <c r="C15" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="292"/>
+      <c r="D15" s="357"/>
       <c r="E15" s="41" t="s">
         <v>19</v>
       </c>
@@ -17097,16 +17026,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="352" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="289" t="s">
+      <c r="D2" s="353" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -17124,12 +17053,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="287"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="352"/>
       <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="353"/>
       <c r="E3" s="41" t="s">
         <v>19</v>
       </c>
@@ -17143,12 +17072,12 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="287"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="289"/>
+      <c r="D4" s="353"/>
       <c r="E4" s="41" t="s">
         <v>19</v>
       </c>
@@ -17164,12 +17093,12 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="287"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="352"/>
       <c r="C5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="289"/>
+      <c r="D5" s="353"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
@@ -17185,12 +17114,12 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="287"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="352"/>
       <c r="C6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="289"/>
+      <c r="D6" s="353"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -17206,12 +17135,12 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="287"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="352"/>
       <c r="C7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="289"/>
+      <c r="D7" s="353"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -17227,12 +17156,12 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="287"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="352"/>
       <c r="C8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="289"/>
+      <c r="D8" s="353"/>
       <c r="E8" s="41" t="s">
         <v>80</v>
       </c>
@@ -17246,12 +17175,12 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="287"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="352"/>
       <c r="C9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="289"/>
+      <c r="D9" s="353"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -17265,12 +17194,12 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="287"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="289"/>
+      <c r="D10" s="353"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -17284,12 +17213,12 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
-      <c r="B11" s="287"/>
+      <c r="A11" s="337"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="289"/>
+      <c r="D11" s="353"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -17305,12 +17234,12 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
-      <c r="B12" s="287"/>
+      <c r="A12" s="337"/>
+      <c r="B12" s="352"/>
       <c r="C12" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="289"/>
+      <c r="D12" s="353"/>
       <c r="E12" s="40" t="s">
         <v>19</v>
       </c>
@@ -17385,16 +17314,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="293">
+      <c r="A2" s="358">
         <v>1</v>
       </c>
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="358" t="s">
         <v>273</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="290" t="s">
+      <c r="D2" s="355" t="s">
         <v>286</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -17411,12 +17340,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="294"/>
-      <c r="B3" s="294"/>
+      <c r="A3" s="359"/>
+      <c r="B3" s="359"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="291"/>
+      <c r="D3" s="356"/>
       <c r="E3" s="39" t="s">
         <v>19</v>
       </c>
@@ -17429,12 +17358,12 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="294"/>
-      <c r="B4" s="294"/>
+      <c r="A4" s="359"/>
+      <c r="B4" s="359"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="356"/>
       <c r="E4" s="39" t="s">
         <v>19</v>
       </c>
@@ -17449,12 +17378,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="294"/>
-      <c r="B5" s="294"/>
+      <c r="A5" s="359"/>
+      <c r="B5" s="359"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="291"/>
+      <c r="D5" s="356"/>
       <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
@@ -17469,12 +17398,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="294"/>
-      <c r="B6" s="294"/>
+      <c r="A6" s="359"/>
+      <c r="B6" s="359"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="291"/>
+      <c r="D6" s="356"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -17489,12 +17418,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="294"/>
-      <c r="B7" s="294"/>
+      <c r="A7" s="359"/>
+      <c r="B7" s="359"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="291"/>
+      <c r="D7" s="356"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -17509,12 +17438,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="294"/>
-      <c r="B8" s="294"/>
+      <c r="A8" s="359"/>
+      <c r="B8" s="359"/>
       <c r="C8" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="291"/>
+      <c r="D8" s="356"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -17527,12 +17456,12 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="294"/>
-      <c r="B9" s="294"/>
+      <c r="A9" s="359"/>
+      <c r="B9" s="359"/>
       <c r="C9" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="291"/>
+      <c r="D9" s="356"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -17545,12 +17474,12 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="294"/>
-      <c r="B10" s="294"/>
+      <c r="A10" s="359"/>
+      <c r="B10" s="359"/>
       <c r="C10" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="D10" s="291"/>
+      <c r="D10" s="356"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
@@ -17565,12 +17494,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="294"/>
-      <c r="B11" s="294"/>
+      <c r="A11" s="359"/>
+      <c r="B11" s="359"/>
       <c r="C11" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="291"/>
+      <c r="D11" s="356"/>
       <c r="E11" s="41" t="s">
         <v>19</v>
       </c>
@@ -17585,12 +17514,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="294"/>
-      <c r="B12" s="294"/>
+      <c r="A12" s="359"/>
+      <c r="B12" s="359"/>
       <c r="C12" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="D12" s="291"/>
+      <c r="D12" s="356"/>
       <c r="E12" s="41" t="s">
         <v>19</v>
       </c>
@@ -17605,12 +17534,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="294"/>
-      <c r="B13" s="294"/>
+      <c r="A13" s="359"/>
+      <c r="B13" s="359"/>
       <c r="C13" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="291"/>
+      <c r="D13" s="356"/>
       <c r="E13" s="41" t="s">
         <v>19</v>
       </c>
@@ -17625,12 +17554,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="294"/>
-      <c r="B14" s="294"/>
+      <c r="A14" s="359"/>
+      <c r="B14" s="359"/>
       <c r="C14" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="D14" s="291"/>
+      <c r="D14" s="356"/>
       <c r="E14" s="41" t="s">
         <v>19</v>
       </c>
@@ -17645,12 +17574,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="294"/>
-      <c r="B15" s="294"/>
+      <c r="A15" s="359"/>
+      <c r="B15" s="359"/>
       <c r="C15" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="291"/>
+      <c r="D15" s="356"/>
       <c r="E15" s="41" t="s">
         <v>19</v>
       </c>
@@ -17665,12 +17594,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="294"/>
-      <c r="B16" s="294"/>
+      <c r="A16" s="359"/>
+      <c r="B16" s="359"/>
       <c r="C16" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="D16" s="291"/>
+      <c r="D16" s="356"/>
       <c r="E16" s="41" t="s">
         <v>19</v>
       </c>
@@ -17685,12 +17614,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="295"/>
-      <c r="B17" s="295"/>
+      <c r="A17" s="360"/>
+      <c r="B17" s="360"/>
       <c r="C17" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="D17" s="292"/>
+      <c r="D17" s="357"/>
       <c r="E17" s="41" t="s">
         <v>19</v>
       </c>
@@ -17766,16 +17695,16 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="170">
+      <c r="A2" s="337">
         <v>1</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="337" t="s">
         <v>331</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D2" s="287" t="s">
+      <c r="D2" s="352" t="s">
         <v>277</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -17792,12 +17721,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
+      <c r="A3" s="337"/>
+      <c r="B3" s="337"/>
       <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="287"/>
+      <c r="D3" s="352"/>
       <c r="E3" s="39" t="s">
         <v>19</v>
       </c>
@@ -17810,12 +17739,12 @@
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="170"/>
+      <c r="A4" s="337"/>
+      <c r="B4" s="337"/>
       <c r="C4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="287"/>
+      <c r="D4" s="352"/>
       <c r="E4" s="39" t="s">
         <v>19</v>
       </c>
@@ -17830,12 +17759,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="170"/>
-      <c r="B5" s="170"/>
+      <c r="A5" s="337"/>
+      <c r="B5" s="337"/>
       <c r="C5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="287"/>
+      <c r="D5" s="352"/>
       <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
@@ -17850,12 +17779,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="170"/>
+      <c r="A6" s="337"/>
+      <c r="B6" s="337"/>
       <c r="C6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="287"/>
+      <c r="D6" s="352"/>
       <c r="E6" s="41" t="s">
         <v>19</v>
       </c>
@@ -17870,12 +17799,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="170"/>
-      <c r="B7" s="170"/>
+      <c r="A7" s="337"/>
+      <c r="B7" s="337"/>
       <c r="C7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="287"/>
+      <c r="D7" s="352"/>
       <c r="E7" s="41" t="s">
         <v>19</v>
       </c>
@@ -17890,12 +17819,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
-      <c r="B8" s="170"/>
+      <c r="A8" s="337"/>
+      <c r="B8" s="337"/>
       <c r="C8" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="D8" s="287"/>
+      <c r="D8" s="352"/>
       <c r="E8" s="41" t="s">
         <v>19</v>
       </c>
@@ -17908,12 +17837,12 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
-      <c r="B9" s="170"/>
+      <c r="A9" s="337"/>
+      <c r="B9" s="337"/>
       <c r="C9" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="287"/>
+      <c r="D9" s="352"/>
       <c r="E9" s="41" t="s">
         <v>19</v>
       </c>
@@ -17926,12 +17855,12 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
-      <c r="B10" s="170"/>
+      <c r="A10" s="337"/>
+      <c r="B10" s="337"/>
       <c r="C10" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="287"/>
+      <c r="D10" s="352"/>
       <c r="E10" s="41" t="s">
         <v>19</v>
       </c>
